--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B586BD6-C879-44E4-8AAE-17D3F20F0F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF0D7B-AE7E-492D-9F00-BDB69042AD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1170" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7374" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="558">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1448,34 +1448,10 @@
     <t>(the "nonenergy industries" or "consumers" cash flow entities in the EPS).</t>
   </si>
   <si>
-    <t>nonenergy industries</t>
-  </si>
-  <si>
     <t>labor and consumers</t>
   </si>
   <si>
     <t>foreign entities</t>
-  </si>
-  <si>
-    <t>electricity suppliers</t>
-  </si>
-  <si>
-    <t>coal suppliers</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum suppliers</t>
-  </si>
-  <si>
-    <t>biomass and biofuel suppliers</t>
-  </si>
-  <si>
-    <t>other energy suppliers</t>
-  </si>
-  <si>
-    <t>Cost ($/MW)</t>
-  </si>
-  <si>
-    <t>% of DR (dimensionless)</t>
   </si>
   <si>
     <t>BA Code</t>
@@ -1747,6 +1723,18 @@
   <si>
     <t>We use the median cost per MW (rather than a  weighted average) because a few</t>
   </si>
+  <si>
+    <t>domestic industries</t>
+  </si>
+  <si>
+    <t>Unit: $/MW</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Unit: % of DR (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
@@ -1757,7 +1745,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1917,6 +1905,14 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2441,7 +2437,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2531,6 +2527,19 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,19 +2615,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="18" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="19" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="20" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2953,12 +2950,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +2973,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3076,12 +3073,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -3119,10 +3116,10 @@
     <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="60" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" customWidth="1"/>
     <col min="10" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3141,111 +3138,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="38" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="43"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
       <c r="AN1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="44" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="44" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="53" t="s">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="55"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
       <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>428</v>
@@ -3386,7 +3383,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F4" s="4">
         <f>IFERROR(SUM(AD4,AI4)*10^3/T4,"")</f>
@@ -3512,7 +3509,7 @@
         <v>25</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:I68" si="1">IFERROR(SUM(AD5,AI5)*10^3/T5,"")</f>
@@ -3638,7 +3635,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="1"/>
@@ -3764,7 +3761,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="1"/>
@@ -3890,7 +3887,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="1"/>
@@ -4016,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
@@ -4142,7 +4139,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="1"/>
@@ -4268,7 +4265,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
@@ -4394,7 +4391,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="1"/>
@@ -4514,13 +4511,13 @@
         <v>332</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="1"/>
@@ -4646,7 +4643,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F14" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4772,7 +4769,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F15" s="4" t="str">
         <f t="shared" si="1"/>
@@ -4898,7 +4895,7 @@
         <v>25</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
@@ -5024,7 +5021,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
@@ -5150,7 +5147,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
@@ -5276,7 +5273,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F19" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5396,13 +5393,13 @@
         <v>814</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
@@ -5528,7 +5525,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F21" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5654,7 +5651,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
@@ -5780,7 +5777,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
@@ -5906,7 +5903,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="1"/>
@@ -6026,13 +6023,13 @@
         <v>1062</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F25" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6158,7 +6155,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="1"/>
@@ -6284,7 +6281,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="1"/>
@@ -6410,7 +6407,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="1"/>
@@ -6536,7 +6533,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="1"/>
@@ -6662,7 +6659,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="1"/>
@@ -6788,7 +6785,7 @@
         <v>36</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="1"/>
@@ -7040,7 +7037,7 @@
         <v>64</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="1"/>
@@ -7166,7 +7163,7 @@
         <v>36</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="1"/>
@@ -7286,13 +7283,13 @@
         <v>1889</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="1"/>
@@ -7418,7 +7415,7 @@
         <v>36</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
@@ -7544,7 +7541,7 @@
         <v>68</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F37" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7670,7 +7667,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F38" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7796,7 +7793,7 @@
         <v>72</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
@@ -7922,7 +7919,7 @@
         <v>70</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8048,7 +8045,7 @@
         <v>64</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
@@ -8174,7 +8171,7 @@
         <v>48</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F42" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8300,7 +8297,7 @@
         <v>77</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
@@ -8426,7 +8423,7 @@
         <v>79</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
@@ -8552,7 +8549,7 @@
         <v>62</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8678,7 +8675,7 @@
         <v>70</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -8804,7 +8801,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="1"/>
@@ -8930,7 +8927,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F48" s="4">
         <f t="shared" si="1"/>
@@ -9056,7 +9053,7 @@
         <v>84</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F49" s="4">
         <f t="shared" si="1"/>
@@ -9182,7 +9179,7 @@
         <v>54</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9308,7 +9305,7 @@
         <v>77</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
@@ -9434,7 +9431,7 @@
         <v>29</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F52" s="4">
         <f t="shared" si="1"/>
@@ -9560,7 +9557,7 @@
         <v>89</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -9686,7 +9683,7 @@
         <v>29</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F54" s="4">
         <f t="shared" si="1"/>
@@ -9812,7 +9809,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F55" s="4">
         <f t="shared" si="1"/>
@@ -9938,7 +9935,7 @@
         <v>23</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F56" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10064,7 +10061,7 @@
         <v>96</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F57" s="4">
         <f t="shared" si="1"/>
@@ -10190,7 +10187,7 @@
         <v>29</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
@@ -10316,7 +10313,7 @@
         <v>96</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F59" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10442,7 +10439,7 @@
         <v>93</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F60" s="4" t="str">
         <f t="shared" si="1"/>
@@ -10568,7 +10565,7 @@
         <v>36</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F61" s="4">
         <f t="shared" si="1"/>
@@ -10688,13 +10685,13 @@
         <v>3804</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D62" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E62" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F62" s="4">
         <f t="shared" si="1"/>
@@ -10946,7 +10943,7 @@
         <v>27</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F64" s="4">
         <f t="shared" si="1"/>
@@ -11072,7 +11069,7 @@
         <v>104</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F65" s="4">
         <f t="shared" si="1"/>
@@ -11198,7 +11195,7 @@
         <v>106</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F66" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11324,7 +11321,7 @@
         <v>96</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F67" s="4" t="str">
         <f t="shared" si="1"/>
@@ -11450,7 +11447,7 @@
         <v>27</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F68" s="4">
         <f t="shared" si="1"/>
@@ -11576,7 +11573,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F69" s="4">
         <f t="shared" ref="F69:I132" si="2">IFERROR(SUM(AD69,AI69)*10^3/T69,"")</f>
@@ -11702,7 +11699,7 @@
         <v>111</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F70" s="4">
         <f t="shared" si="2"/>
@@ -11828,7 +11825,7 @@
         <v>113</v>
       </c>
       <c r="E71" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F71" s="4" t="str">
         <f t="shared" si="2"/>
@@ -11954,7 +11951,7 @@
         <v>84</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F72" s="4">
         <f t="shared" si="2"/>
@@ -12080,7 +12077,7 @@
         <v>116</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F73" s="4">
         <f t="shared" si="2"/>
@@ -12200,13 +12197,13 @@
         <v>4295</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D74" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F74" s="4" t="str">
         <f t="shared" si="2"/>
@@ -12332,7 +12329,7 @@
         <v>27</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F75" s="4" t="str">
         <f t="shared" si="2"/>
@@ -12458,7 +12455,7 @@
         <v>38</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F76" s="4">
         <f t="shared" si="2"/>
@@ -12584,7 +12581,7 @@
         <v>31</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F77" s="4">
         <f t="shared" si="2"/>
@@ -12710,7 +12707,7 @@
         <v>40</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F78" s="4">
         <f t="shared" si="2"/>
@@ -12836,7 +12833,7 @@
         <v>48</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F79" s="4" t="str">
         <f t="shared" si="2"/>
@@ -12962,7 +12959,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F80" s="4" t="str">
         <f t="shared" si="2"/>
@@ -13088,7 +13085,7 @@
         <v>106</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F81" s="4">
         <f t="shared" si="2"/>
@@ -13214,7 +13211,7 @@
         <v>72</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F82" s="4">
         <f t="shared" si="2"/>
@@ -13340,7 +13337,7 @@
         <v>25</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F83" s="4" t="str">
         <f t="shared" si="2"/>
@@ -13466,7 +13463,7 @@
         <v>70</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F84" s="4" t="str">
         <f t="shared" si="2"/>
@@ -13586,13 +13583,13 @@
         <v>4960</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="D85" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F85" s="4" t="str">
         <f t="shared" si="2"/>
@@ -13718,7 +13715,7 @@
         <v>128</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F86" s="4">
         <f t="shared" si="2"/>
@@ -13844,7 +13841,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F87" s="4">
         <f t="shared" si="2"/>
@@ -13970,7 +13967,7 @@
         <v>38</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F88" s="4">
         <f t="shared" si="2"/>
@@ -14096,7 +14093,7 @@
         <v>128</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F89" s="4">
         <f t="shared" si="2"/>
@@ -14222,7 +14219,7 @@
         <v>54</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F90" s="4">
         <f t="shared" si="2"/>
@@ -14348,7 +14345,7 @@
         <v>116</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F91" s="4">
         <f t="shared" si="2"/>
@@ -14474,7 +14471,7 @@
         <v>36</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F92" s="4">
         <f t="shared" si="2"/>
@@ -14600,7 +14597,7 @@
         <v>128</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F93" s="4" t="str">
         <f t="shared" si="2"/>
@@ -14726,7 +14723,7 @@
         <v>96</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F94" s="4" t="str">
         <f t="shared" si="2"/>
@@ -14852,7 +14849,7 @@
         <v>79</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F95" s="4" t="str">
         <f t="shared" si="2"/>
@@ -14978,7 +14975,7 @@
         <v>62</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F96" s="4" t="str">
         <f t="shared" si="2"/>
@@ -15104,7 +15101,7 @@
         <v>29</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F97" s="4">
         <f t="shared" si="2"/>
@@ -15230,7 +15227,7 @@
         <v>111</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F98" s="4">
         <f t="shared" si="2"/>
@@ -15350,13 +15347,13 @@
         <v>5487</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D99" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F99" s="4" t="str">
         <f t="shared" si="2"/>
@@ -15482,7 +15479,7 @@
         <v>64</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F100" s="4">
         <f t="shared" si="2"/>
@@ -15608,7 +15605,7 @@
         <v>36</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F101" s="4">
         <f t="shared" si="2"/>
@@ -15734,7 +15731,7 @@
         <v>142</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F102" s="4" t="str">
         <f t="shared" si="2"/>
@@ -15860,7 +15857,7 @@
         <v>29</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F103" s="4">
         <f t="shared" si="2"/>
@@ -15986,7 +15983,7 @@
         <v>54</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F104" s="4">
         <f t="shared" si="2"/>
@@ -16112,7 +16109,7 @@
         <v>70</v>
       </c>
       <c r="E105" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F105" s="4" t="str">
         <f t="shared" si="2"/>
@@ -16238,7 +16235,7 @@
         <v>106</v>
       </c>
       <c r="E106" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F106" s="4" t="str">
         <f t="shared" si="2"/>
@@ -16364,7 +16361,7 @@
         <v>84</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F107" s="4" t="str">
         <f t="shared" si="2"/>
@@ -16490,7 +16487,7 @@
         <v>40</v>
       </c>
       <c r="E108" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F108" s="4">
         <f t="shared" si="2"/>
@@ -16616,7 +16613,7 @@
         <v>93</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F109" s="4">
         <f t="shared" si="2"/>
@@ -16742,7 +16739,7 @@
         <v>36</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
@@ -16868,7 +16865,7 @@
         <v>106</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
@@ -16988,13 +16985,13 @@
         <v>6182</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
@@ -17120,7 +17117,7 @@
         <v>48</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
@@ -17246,7 +17243,7 @@
         <v>156</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
@@ -17372,7 +17369,7 @@
         <v>40</v>
       </c>
       <c r="E115" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
@@ -17498,7 +17495,7 @@
         <v>72</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
@@ -17624,7 +17621,7 @@
         <v>93</v>
       </c>
       <c r="E117" s="33" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F117" s="4">
         <f t="shared" si="2"/>
@@ -17750,7 +17747,7 @@
         <v>93</v>
       </c>
       <c r="E118" s="33" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F118" s="4">
         <f t="shared" si="2"/>
@@ -17876,7 +17873,7 @@
         <v>104</v>
       </c>
       <c r="E119" s="33" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F119" s="4">
         <f t="shared" si="2"/>
@@ -18002,7 +17999,7 @@
         <v>79</v>
       </c>
       <c r="E120" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F120" s="4" t="str">
         <f t="shared" si="2"/>
@@ -18122,13 +18119,13 @@
         <v>6709</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D121" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F121" s="4">
         <f t="shared" si="2"/>
@@ -18254,7 +18251,7 @@
         <v>36</v>
       </c>
       <c r="E122" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F122" s="4">
         <f t="shared" si="2"/>
@@ -18380,7 +18377,7 @@
         <v>96</v>
       </c>
       <c r="E123" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F123" s="4">
         <f t="shared" si="2"/>
@@ -18506,7 +18503,7 @@
         <v>40</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F124" s="4" t="str">
         <f t="shared" si="2"/>
@@ -18632,7 +18629,7 @@
         <v>40</v>
       </c>
       <c r="E125" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F125" s="4">
         <f t="shared" si="2"/>
@@ -18758,7 +18755,7 @@
         <v>42</v>
       </c>
       <c r="E126" s="33" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F126" s="4">
         <f t="shared" si="2"/>
@@ -18884,7 +18881,7 @@
         <v>90</v>
       </c>
       <c r="E127" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F127" s="4" t="str">
         <f t="shared" si="2"/>
@@ -19010,7 +19007,7 @@
         <v>54</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F128" s="4" t="str">
         <f t="shared" si="2"/>
@@ -19136,7 +19133,7 @@
         <v>36</v>
       </c>
       <c r="E129" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F129" s="4">
         <f t="shared" si="2"/>
@@ -19262,7 +19259,7 @@
         <v>90</v>
       </c>
       <c r="E130" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F130" s="4" t="str">
         <f t="shared" si="2"/>
@@ -19388,7 +19385,7 @@
         <v>36</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F131" s="4">
         <f t="shared" si="2"/>
@@ -19514,7 +19511,7 @@
         <v>173</v>
       </c>
       <c r="E132" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F132" s="4">
         <f t="shared" si="2"/>
@@ -19640,7 +19637,7 @@
         <v>54</v>
       </c>
       <c r="E133" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F133" s="4" t="str">
         <f t="shared" ref="F133:I196" si="4">IFERROR(SUM(AD133,AI133)*10^3/T133,"")</f>
@@ -19766,7 +19763,7 @@
         <v>106</v>
       </c>
       <c r="E134" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F134" s="4">
         <f t="shared" si="4"/>
@@ -19886,13 +19883,13 @@
         <v>7752</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D135" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F135" s="4">
         <f t="shared" si="4"/>
@@ -20018,7 +20015,7 @@
         <v>93</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F136" s="4">
         <f t="shared" si="4"/>
@@ -20144,7 +20141,7 @@
         <v>93</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F137" s="4">
         <f t="shared" si="4"/>
@@ -20270,7 +20267,7 @@
         <v>96</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F138" s="4" t="str">
         <f t="shared" si="4"/>
@@ -20396,7 +20393,7 @@
         <v>68</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F139" s="4">
         <f t="shared" si="4"/>
@@ -20522,7 +20519,7 @@
         <v>40</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F140" s="4">
         <f t="shared" si="4"/>
@@ -20648,7 +20645,7 @@
         <v>38</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F141" s="4">
         <f t="shared" si="4"/>
@@ -20774,7 +20771,7 @@
         <v>38</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F142" s="4">
         <f t="shared" si="4"/>
@@ -20900,7 +20897,7 @@
         <v>79</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F143" s="4">
         <f t="shared" si="4"/>
@@ -21026,7 +21023,7 @@
         <v>104</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F144" s="4" t="str">
         <f t="shared" si="4"/>
@@ -21152,7 +21149,7 @@
         <v>70</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F145" s="4" t="str">
         <f t="shared" si="4"/>
@@ -21278,7 +21275,7 @@
         <v>29</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F146" s="4">
         <f t="shared" si="4"/>
@@ -21530,7 +21527,7 @@
         <v>54</v>
       </c>
       <c r="E148" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F148" s="4">
         <f t="shared" si="4"/>
@@ -21656,7 +21653,7 @@
         <v>70</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F149" s="4" t="str">
         <f t="shared" si="4"/>
@@ -21782,7 +21779,7 @@
         <v>152</v>
       </c>
       <c r="E150" s="33" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F150" s="4">
         <f t="shared" si="4"/>
@@ -21908,7 +21905,7 @@
         <v>190</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F151" s="4">
         <f t="shared" si="4"/>
@@ -22034,7 +22031,7 @@
         <v>27</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F152" s="4" t="str">
         <f t="shared" si="4"/>
@@ -22160,7 +22157,7 @@
         <v>106</v>
       </c>
       <c r="E153" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F153" s="4" t="str">
         <f t="shared" si="4"/>
@@ -22286,7 +22283,7 @@
         <v>68</v>
       </c>
       <c r="E154" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F154" s="4">
         <f t="shared" si="4"/>
@@ -22412,7 +22409,7 @@
         <v>68</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F155" s="4">
         <f t="shared" si="4"/>
@@ -22538,7 +22535,7 @@
         <v>68</v>
       </c>
       <c r="E156" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F156" s="4">
         <f t="shared" si="4"/>
@@ -22664,7 +22661,7 @@
         <v>116</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F157" s="4">
         <f t="shared" si="4"/>
@@ -22790,7 +22787,7 @@
         <v>38</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F158" s="4">
         <f t="shared" si="4"/>
@@ -22916,7 +22913,7 @@
         <v>40</v>
       </c>
       <c r="E159" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F159" s="4" t="str">
         <f t="shared" si="4"/>
@@ -23042,7 +23039,7 @@
         <v>68</v>
       </c>
       <c r="E160" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F160" s="4">
         <f t="shared" si="4"/>
@@ -23168,7 +23165,7 @@
         <v>54</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F161" s="4" t="str">
         <f t="shared" si="4"/>
@@ -23294,7 +23291,7 @@
         <v>40</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F162" s="4">
         <f t="shared" si="4"/>
@@ -23540,13 +23537,13 @@
         <v>9750</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D164" s="33" t="s">
         <v>27</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F164" s="4">
         <f t="shared" si="4"/>
@@ -23672,7 +23669,7 @@
         <v>68</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F165" s="4" t="str">
         <f t="shared" si="4"/>
@@ -23798,7 +23795,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F166" s="4">
         <f t="shared" si="4"/>
@@ -23924,7 +23921,7 @@
         <v>72</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F167" s="4">
         <f t="shared" si="4"/>
@@ -24050,7 +24047,7 @@
         <v>106</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F168" s="4">
         <f t="shared" si="4"/>
@@ -24176,7 +24173,7 @@
         <v>72</v>
       </c>
       <c r="E169" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F169" s="4" t="str">
         <f t="shared" si="4"/>
@@ -24302,7 +24299,7 @@
         <v>70</v>
       </c>
       <c r="E170" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F170" s="4" t="str">
         <f t="shared" si="4"/>
@@ -24428,7 +24425,7 @@
         <v>142</v>
       </c>
       <c r="E171" s="33" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F171" s="4">
         <f t="shared" si="4"/>
@@ -24554,7 +24551,7 @@
         <v>64</v>
       </c>
       <c r="E172" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F172" s="4">
         <f t="shared" si="4"/>
@@ -24680,7 +24677,7 @@
         <v>36</v>
       </c>
       <c r="E173" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F173" s="4" t="str">
         <f t="shared" si="4"/>
@@ -24806,7 +24803,7 @@
         <v>36</v>
       </c>
       <c r="E174" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F174" s="4" t="str">
         <f t="shared" si="4"/>
@@ -24932,7 +24929,7 @@
         <v>62</v>
       </c>
       <c r="E175" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F175" s="4">
         <f>IFERROR(SUM(AD175,AI175)*10^3/T175,"")</f>
@@ -25058,7 +25055,7 @@
         <v>93</v>
       </c>
       <c r="E176" s="33" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F176" s="4">
         <f t="shared" si="4"/>
@@ -25178,13 +25175,13 @@
         <v>11018</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E177" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F177" s="4">
         <f t="shared" si="4"/>
@@ -25310,7 +25307,7 @@
         <v>36</v>
       </c>
       <c r="E178" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F178" s="4">
         <f t="shared" si="4"/>
@@ -25436,7 +25433,7 @@
         <v>84</v>
       </c>
       <c r="E179" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F179" s="4">
         <f t="shared" si="4"/>
@@ -25562,7 +25559,7 @@
         <v>42</v>
       </c>
       <c r="E180" s="33" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F180" s="4" t="str">
         <f t="shared" si="4"/>
@@ -25688,7 +25685,7 @@
         <v>142</v>
       </c>
       <c r="E181" s="33" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="F181" s="4">
         <f t="shared" si="4"/>
@@ -25814,7 +25811,7 @@
         <v>70</v>
       </c>
       <c r="E182" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F182" s="4" t="str">
         <f t="shared" si="4"/>
@@ -25940,7 +25937,7 @@
         <v>152</v>
       </c>
       <c r="E183" s="33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F183" s="4" t="str">
         <f t="shared" si="4"/>
@@ -26066,7 +26063,7 @@
         <v>219</v>
       </c>
       <c r="E184" s="33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F184" s="4">
         <f t="shared" si="4"/>
@@ -26192,7 +26189,7 @@
         <v>79</v>
       </c>
       <c r="E185" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F185" s="4">
         <f t="shared" si="4"/>
@@ -26318,7 +26315,7 @@
         <v>38</v>
       </c>
       <c r="E186" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F186" s="4">
         <f t="shared" si="4"/>
@@ -26444,7 +26441,7 @@
         <v>64</v>
       </c>
       <c r="E187" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F187" s="4">
         <f t="shared" si="4"/>
@@ -26570,7 +26567,7 @@
         <v>29</v>
       </c>
       <c r="E188" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F188" s="4">
         <f t="shared" si="4"/>
@@ -26696,7 +26693,7 @@
         <v>25</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F189" s="4">
         <f t="shared" si="4"/>
@@ -26822,7 +26819,7 @@
         <v>38</v>
       </c>
       <c r="E190" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F190" s="4">
         <f t="shared" si="4"/>
@@ -26948,7 +26945,7 @@
         <v>36</v>
       </c>
       <c r="E191" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F191" s="4">
         <f t="shared" si="4"/>
@@ -27074,7 +27071,7 @@
         <v>84</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F192" s="4">
         <f t="shared" si="4"/>
@@ -27200,7 +27197,7 @@
         <v>229</v>
       </c>
       <c r="E193" s="33" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F193" s="4" t="str">
         <f t="shared" si="4"/>
@@ -27326,7 +27323,7 @@
         <v>156</v>
       </c>
       <c r="E194" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F194" s="4" t="str">
         <f t="shared" si="4"/>
@@ -27452,7 +27449,7 @@
         <v>77</v>
       </c>
       <c r="E195" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F195" s="4" t="str">
         <f t="shared" si="4"/>
@@ -27578,7 +27575,7 @@
         <v>219</v>
       </c>
       <c r="E196" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F196" s="4">
         <f t="shared" si="4"/>
@@ -27704,7 +27701,7 @@
         <v>72</v>
       </c>
       <c r="E197" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F197" s="4" t="str">
         <f t="shared" ref="F197:I260" si="5">IFERROR(SUM(AD197,AI197)*10^3/T197,"")</f>
@@ -27830,7 +27827,7 @@
         <v>25</v>
       </c>
       <c r="E198" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F198" s="4" t="str">
         <f t="shared" si="5"/>
@@ -27950,13 +27947,13 @@
         <v>12265</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D199" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E199" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F199" s="4" t="str">
         <f t="shared" si="5"/>
@@ -28082,7 +28079,7 @@
         <v>54</v>
       </c>
       <c r="E200" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F200" s="4" t="str">
         <f t="shared" si="5"/>
@@ -28208,7 +28205,7 @@
         <v>77</v>
       </c>
       <c r="E201" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F201" s="4">
         <f t="shared" si="5"/>
@@ -28334,7 +28331,7 @@
         <v>38</v>
       </c>
       <c r="E202" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F202" s="4">
         <f t="shared" si="5"/>
@@ -28460,7 +28457,7 @@
         <v>27</v>
       </c>
       <c r="E203" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F203" s="4">
         <f t="shared" si="5"/>
@@ -28586,7 +28583,7 @@
         <v>64</v>
       </c>
       <c r="E204" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F204" s="4">
         <f t="shared" si="5"/>
@@ -28712,7 +28709,7 @@
         <v>116</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F205" s="4">
         <f t="shared" si="5"/>
@@ -28838,7 +28835,7 @@
         <v>89</v>
       </c>
       <c r="E206" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F206" s="4">
         <f t="shared" si="5"/>
@@ -28964,7 +28961,7 @@
         <v>27</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F207" s="4">
         <f t="shared" si="5"/>
@@ -29084,13 +29081,13 @@
         <v>12439</v>
       </c>
       <c r="C208" s="33" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="D208" s="33" t="s">
         <v>190</v>
       </c>
       <c r="E208" s="33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F208" s="4">
         <f t="shared" si="5"/>
@@ -29216,7 +29213,7 @@
         <v>156</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F209" s="4">
         <f t="shared" si="5"/>
@@ -29342,7 +29339,7 @@
         <v>40</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F210" s="4" t="str">
         <f t="shared" si="5"/>
@@ -29468,7 +29465,7 @@
         <v>72</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F211" s="4" t="str">
         <f t="shared" si="5"/>
@@ -29594,7 +29591,7 @@
         <v>70</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F212" s="4" t="str">
         <f t="shared" si="5"/>
@@ -29720,7 +29717,7 @@
         <v>190</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F213" s="4">
         <f t="shared" si="5"/>
@@ -29846,7 +29843,7 @@
         <v>36</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F214" s="4">
         <f t="shared" si="5"/>
@@ -29972,7 +29969,7 @@
         <v>96</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F215" s="4" t="str">
         <f t="shared" si="5"/>
@@ -30098,7 +30095,7 @@
         <v>48</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F216" s="4" t="str">
         <f t="shared" si="5"/>
@@ -30224,7 +30221,7 @@
         <v>248</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F217" s="4" t="str">
         <f t="shared" si="5"/>
@@ -30350,7 +30347,7 @@
         <v>106</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F218" s="4">
         <f t="shared" si="5"/>
@@ -30476,7 +30473,7 @@
         <v>42</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F219" s="4">
         <f t="shared" si="5"/>
@@ -30602,7 +30599,7 @@
         <v>44</v>
       </c>
       <c r="E220" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F220" s="4" t="str">
         <f t="shared" si="5"/>
@@ -30728,7 +30725,7 @@
         <v>36</v>
       </c>
       <c r="E221" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F221" s="4">
         <f t="shared" si="5"/>
@@ -30854,7 +30851,7 @@
         <v>36</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F222" s="4" t="str">
         <f t="shared" si="5"/>
@@ -30980,7 +30977,7 @@
         <v>64</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F223" s="4">
         <f t="shared" si="5"/>
@@ -31106,7 +31103,7 @@
         <v>104</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F224" s="4">
         <f t="shared" si="5"/>
@@ -31232,7 +31229,7 @@
         <v>70</v>
       </c>
       <c r="E225" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F225" s="4" t="str">
         <f t="shared" si="5"/>
@@ -31358,7 +31355,7 @@
         <v>258</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F226" s="4">
         <f t="shared" si="5"/>
@@ -31478,13 +31475,13 @@
         <v>13441</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F227" s="4">
         <f t="shared" si="5"/>
@@ -31604,13 +31601,13 @@
         <v>13478</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D228" s="33" t="s">
         <v>259</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F228" s="4">
         <f t="shared" si="5"/>
@@ -31736,7 +31733,7 @@
         <v>36</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F229" s="4">
         <f t="shared" si="5"/>
@@ -31862,7 +31859,7 @@
         <v>93</v>
       </c>
       <c r="E230" s="33" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F230" s="4">
         <f t="shared" si="5"/>
@@ -31988,7 +31985,7 @@
         <v>84</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F231" s="4">
         <f t="shared" si="5"/>
@@ -32114,7 +32111,7 @@
         <v>84</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F232" s="4">
         <f t="shared" si="5"/>
@@ -32240,7 +32237,7 @@
         <v>79</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F233" s="4">
         <f t="shared" si="5"/>
@@ -32366,7 +32363,7 @@
         <v>25</v>
       </c>
       <c r="E234" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F234" s="4">
         <f t="shared" si="5"/>
@@ -32492,7 +32489,7 @@
         <v>70</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F235" s="4" t="str">
         <f t="shared" si="5"/>
@@ -32618,7 +32615,7 @@
         <v>48</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F236" s="4">
         <f t="shared" si="5"/>
@@ -32744,7 +32741,7 @@
         <v>79</v>
       </c>
       <c r="E237" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F237" s="4">
         <f t="shared" si="5"/>
@@ -32870,7 +32867,7 @@
         <v>79</v>
       </c>
       <c r="E238" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F238" s="4">
         <f t="shared" si="5"/>
@@ -32996,7 +32993,7 @@
         <v>106</v>
       </c>
       <c r="E239" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F239" s="4">
         <f t="shared" si="5"/>
@@ -33122,7 +33119,7 @@
         <v>70</v>
       </c>
       <c r="E240" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F240" s="4" t="str">
         <f t="shared" si="5"/>
@@ -33248,7 +33245,7 @@
         <v>70</v>
       </c>
       <c r="E241" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F241" s="4">
         <f t="shared" si="5"/>
@@ -33374,7 +33371,7 @@
         <v>25</v>
       </c>
       <c r="E242" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F242" s="4">
         <f t="shared" si="5"/>
@@ -33500,7 +33497,7 @@
         <v>29</v>
       </c>
       <c r="E243" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F243" s="4">
         <f t="shared" si="5"/>
@@ -33626,7 +33623,7 @@
         <v>36</v>
       </c>
       <c r="E244" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F244" s="4">
         <f t="shared" si="5"/>
@@ -33752,7 +33749,7 @@
         <v>77</v>
       </c>
       <c r="E245" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F245" s="4">
         <f t="shared" si="5"/>
@@ -33878,7 +33875,7 @@
         <v>64</v>
       </c>
       <c r="E246" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F246" s="4">
         <f t="shared" si="5"/>
@@ -34004,7 +34001,7 @@
         <v>38</v>
       </c>
       <c r="E247" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F247" s="4">
         <f t="shared" si="5"/>
@@ -34130,7 +34127,7 @@
         <v>29</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F248" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34256,7 +34253,7 @@
         <v>90</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F249" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34382,7 +34379,7 @@
         <v>111</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F250" s="4">
         <f t="shared" si="5"/>
@@ -34508,7 +34505,7 @@
         <v>29</v>
       </c>
       <c r="E251" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F251" s="4">
         <f t="shared" si="5"/>
@@ -34634,7 +34631,7 @@
         <v>96</v>
       </c>
       <c r="E252" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F252" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34760,7 +34757,7 @@
         <v>48</v>
       </c>
       <c r="E253" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F253" s="4" t="str">
         <f t="shared" si="5"/>
@@ -34886,7 +34883,7 @@
         <v>90</v>
       </c>
       <c r="E254" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F254" s="4">
         <f t="shared" si="5"/>
@@ -35012,7 +35009,7 @@
         <v>70</v>
       </c>
       <c r="E255" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F255" s="4">
         <f t="shared" si="5"/>
@@ -35132,13 +35129,13 @@
         <v>14132</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D256" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E256" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F256" s="4">
         <f t="shared" si="5"/>
@@ -35264,7 +35261,7 @@
         <v>84</v>
       </c>
       <c r="E257" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F257" s="4">
         <f t="shared" si="5"/>
@@ -35516,7 +35513,7 @@
         <v>36</v>
       </c>
       <c r="E259" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F259" s="4">
         <f t="shared" si="5"/>
@@ -35642,7 +35639,7 @@
         <v>38</v>
       </c>
       <c r="E260" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F260" s="4">
         <f t="shared" si="5"/>
@@ -35768,7 +35765,7 @@
         <v>38</v>
       </c>
       <c r="E261" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F261" s="4">
         <f t="shared" ref="F261:I324" si="7">IFERROR(SUM(AD261,AI261)*10^3/T261,"")</f>
@@ -35894,7 +35891,7 @@
         <v>36</v>
       </c>
       <c r="E262" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F262" s="4">
         <f t="shared" si="7"/>
@@ -36014,13 +36011,13 @@
         <v>14328</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E263" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F263" s="4">
         <f t="shared" si="7"/>
@@ -36146,7 +36143,7 @@
         <v>152</v>
       </c>
       <c r="E264" s="33" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F264" s="4" t="str">
         <f t="shared" si="7"/>
@@ -36272,7 +36269,7 @@
         <v>190</v>
       </c>
       <c r="E265" s="33" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F265" s="4" t="str">
         <f t="shared" si="7"/>
@@ -36398,7 +36395,7 @@
         <v>291</v>
       </c>
       <c r="E266" s="33" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F266" s="4">
         <f t="shared" si="7"/>
@@ -36650,7 +36647,7 @@
         <v>70</v>
       </c>
       <c r="E268" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F268" s="4" t="str">
         <f t="shared" si="7"/>
@@ -36776,7 +36773,7 @@
         <v>36</v>
       </c>
       <c r="E269" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F269" s="4">
         <f t="shared" si="7"/>
@@ -37022,13 +37019,13 @@
         <v>14715</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D271" s="33" t="s">
         <v>89</v>
       </c>
       <c r="E271" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F271" s="4" t="str">
         <f t="shared" si="7"/>
@@ -37154,7 +37151,7 @@
         <v>89</v>
       </c>
       <c r="E272" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F272" s="4">
         <f t="shared" si="7"/>
@@ -37280,7 +37277,7 @@
         <v>79</v>
       </c>
       <c r="E273" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F273" s="4" t="str">
         <f t="shared" si="7"/>
@@ -37406,7 +37403,7 @@
         <v>89</v>
       </c>
       <c r="E274" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F274" s="4">
         <f t="shared" si="7"/>
@@ -37532,7 +37529,7 @@
         <v>79</v>
       </c>
       <c r="E275" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F275" s="4">
         <f t="shared" si="7"/>
@@ -37658,7 +37655,7 @@
         <v>29</v>
       </c>
       <c r="E276" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F276" s="4">
         <f t="shared" si="7"/>
@@ -37778,13 +37775,13 @@
         <v>15188</v>
       </c>
       <c r="C277" s="33" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D277" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E277" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F277" s="4" t="str">
         <f t="shared" si="7"/>
@@ -37910,7 +37907,7 @@
         <v>190</v>
       </c>
       <c r="E278" s="33" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F278" s="4">
         <f t="shared" si="7"/>
@@ -38036,7 +38033,7 @@
         <v>303</v>
       </c>
       <c r="E279" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F279" s="4">
         <f t="shared" si="7"/>
@@ -38162,7 +38159,7 @@
         <v>23</v>
       </c>
       <c r="E280" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F280" s="4">
         <f t="shared" si="7"/>
@@ -38288,7 +38285,7 @@
         <v>29</v>
       </c>
       <c r="E281" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F281" s="4">
         <f t="shared" si="7"/>
@@ -38414,7 +38411,7 @@
         <v>29</v>
       </c>
       <c r="E282" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F282" s="4">
         <f t="shared" si="7"/>
@@ -38540,7 +38537,7 @@
         <v>36</v>
       </c>
       <c r="E283" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F283" s="4">
         <f t="shared" si="7"/>
@@ -38666,7 +38663,7 @@
         <v>25</v>
       </c>
       <c r="E284" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F284" s="4">
         <f t="shared" si="7"/>
@@ -38792,7 +38789,7 @@
         <v>104</v>
       </c>
       <c r="E285" s="33" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="F285" s="4">
         <f t="shared" si="7"/>
@@ -38918,7 +38915,7 @@
         <v>68</v>
       </c>
       <c r="E286" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F286" s="4">
         <f t="shared" si="7"/>
@@ -39044,7 +39041,7 @@
         <v>145</v>
       </c>
       <c r="E287" s="33" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="F287" s="4">
         <f t="shared" si="7"/>
@@ -39170,7 +39167,7 @@
         <v>90</v>
       </c>
       <c r="E288" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F288" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39296,7 +39293,7 @@
         <v>51</v>
       </c>
       <c r="E289" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F289" s="4">
         <f t="shared" si="7"/>
@@ -39422,7 +39419,7 @@
         <v>25</v>
       </c>
       <c r="E290" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F290" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39548,7 +39545,7 @@
         <v>79</v>
       </c>
       <c r="E291" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F291" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39674,7 +39671,7 @@
         <v>40</v>
       </c>
       <c r="E292" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F292" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39800,7 +39797,7 @@
         <v>90</v>
       </c>
       <c r="E293" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F293" s="4" t="str">
         <f t="shared" si="7"/>
@@ -39926,7 +39923,7 @@
         <v>111</v>
       </c>
       <c r="E294" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F294" s="4" t="str">
         <f t="shared" si="7"/>
@@ -40052,7 +40049,7 @@
         <v>29</v>
       </c>
       <c r="E295" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F295" s="4">
         <f t="shared" si="7"/>
@@ -40172,13 +40169,13 @@
         <v>16101</v>
       </c>
       <c r="C296" s="33" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D296" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E296" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F296" s="4">
         <f t="shared" si="7"/>
@@ -40304,7 +40301,7 @@
         <v>36</v>
       </c>
       <c r="E297" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F297" s="4">
         <f t="shared" si="7"/>
@@ -40430,7 +40427,7 @@
         <v>84</v>
       </c>
       <c r="E298" s="33" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F298" s="4">
         <f t="shared" si="7"/>
@@ -40556,7 +40553,7 @@
         <v>72</v>
       </c>
       <c r="E299" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F299" s="4" t="str">
         <f t="shared" si="7"/>
@@ -40682,7 +40679,7 @@
         <v>36</v>
       </c>
       <c r="E300" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F300" s="4">
         <f t="shared" si="7"/>
@@ -40808,7 +40805,7 @@
         <v>42</v>
       </c>
       <c r="E301" s="33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F301" s="4">
         <f t="shared" si="7"/>
@@ -40934,7 +40931,7 @@
         <v>79</v>
       </c>
       <c r="E302" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F302" s="4">
         <f t="shared" si="7"/>
@@ -41060,7 +41057,7 @@
         <v>42</v>
       </c>
       <c r="E303" s="33" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F303" s="4">
         <f t="shared" si="7"/>
@@ -41186,7 +41183,7 @@
         <v>46</v>
       </c>
       <c r="E304" s="33" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F304" s="4">
         <f t="shared" si="7"/>
@@ -41312,7 +41309,7 @@
         <v>54</v>
       </c>
       <c r="E305" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F305" s="4">
         <f t="shared" si="7"/>
@@ -41564,7 +41561,7 @@
         <v>42</v>
       </c>
       <c r="E307" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F307" s="4">
         <f t="shared" si="7"/>
@@ -41690,7 +41687,7 @@
         <v>54</v>
       </c>
       <c r="E308" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F308" s="4" t="str">
         <f t="shared" si="7"/>
@@ -41816,7 +41813,7 @@
         <v>40</v>
       </c>
       <c r="E309" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F309" s="4" t="str">
         <f t="shared" si="7"/>
@@ -41942,7 +41939,7 @@
         <v>29</v>
       </c>
       <c r="E310" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F310" s="4">
         <f t="shared" si="7"/>
@@ -42068,7 +42065,7 @@
         <v>106</v>
       </c>
       <c r="E311" s="33" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="F311" s="4" t="str">
         <f t="shared" si="7"/>
@@ -42194,7 +42191,7 @@
         <v>72</v>
       </c>
       <c r="E312" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F312" s="4">
         <f t="shared" si="7"/>
@@ -42320,7 +42317,7 @@
         <v>40</v>
       </c>
       <c r="E313" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F313" s="4">
         <f t="shared" si="7"/>
@@ -42446,7 +42443,7 @@
         <v>72</v>
       </c>
       <c r="E314" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F314" s="4" t="str">
         <f t="shared" si="7"/>
@@ -42572,7 +42569,7 @@
         <v>38</v>
       </c>
       <c r="E315" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F315" s="4">
         <f t="shared" si="7"/>
@@ -42698,7 +42695,7 @@
         <v>36</v>
       </c>
       <c r="E316" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F316" s="4">
         <f t="shared" si="7"/>
@@ -42824,7 +42821,7 @@
         <v>27</v>
       </c>
       <c r="E317" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F317" s="4">
         <f t="shared" si="7"/>
@@ -42950,7 +42947,7 @@
         <v>25</v>
       </c>
       <c r="E318" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F318" s="4">
         <f t="shared" si="7"/>
@@ -43076,7 +43073,7 @@
         <v>258</v>
       </c>
       <c r="E319" s="33" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F319" s="4">
         <f t="shared" si="7"/>
@@ -43196,13 +43193,13 @@
         <v>17252</v>
       </c>
       <c r="C320" s="33" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D320" s="33" t="s">
         <v>248</v>
       </c>
       <c r="E320" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F320" s="4" t="str">
         <f t="shared" si="7"/>
@@ -43328,7 +43325,7 @@
         <v>38</v>
       </c>
       <c r="E321" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F321" s="4">
         <f t="shared" si="7"/>
@@ -43448,13 +43445,13 @@
         <v>17267</v>
       </c>
       <c r="C322" s="33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D322" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E322" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F322" s="4" t="str">
         <f t="shared" si="7"/>
@@ -43574,13 +43571,13 @@
         <v>17267</v>
       </c>
       <c r="C323" s="33" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D323" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E323" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F323" s="4" t="str">
         <f t="shared" si="7"/>
@@ -43700,13 +43697,13 @@
         <v>17539</v>
       </c>
       <c r="C324" s="33" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D324" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E324" s="33" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F324" s="4" t="str">
         <f t="shared" si="7"/>
@@ -43958,7 +43955,7 @@
         <v>70</v>
       </c>
       <c r="E326" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F326" s="4" t="str">
         <f t="shared" si="8"/>
@@ -44084,7 +44081,7 @@
         <v>54</v>
       </c>
       <c r="E327" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F327" s="4" t="str">
         <f t="shared" si="8"/>
@@ -44210,7 +44207,7 @@
         <v>79</v>
       </c>
       <c r="E328" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F328" s="4">
         <f t="shared" si="8"/>
@@ -44336,7 +44333,7 @@
         <v>70</v>
       </c>
       <c r="E329" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F329" s="4" t="str">
         <f t="shared" si="8"/>
@@ -44456,13 +44453,13 @@
         <v>17599</v>
       </c>
       <c r="C330" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D330" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E330" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F330" s="4">
         <f t="shared" si="8"/>
@@ -44588,7 +44585,7 @@
         <v>42</v>
       </c>
       <c r="E331" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F331" s="4">
         <f t="shared" si="8"/>
@@ -44714,7 +44711,7 @@
         <v>42</v>
       </c>
       <c r="E332" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F332" s="4" t="str">
         <f t="shared" si="8"/>
@@ -44840,7 +44837,7 @@
         <v>68</v>
       </c>
       <c r="E333" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F333" s="4">
         <f t="shared" si="8"/>
@@ -44966,7 +44963,7 @@
         <v>23</v>
       </c>
       <c r="E334" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F334" s="4">
         <f t="shared" si="8"/>
@@ -45092,7 +45089,7 @@
         <v>48</v>
       </c>
       <c r="E335" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F335" s="4" t="str">
         <f t="shared" si="8"/>
@@ -45218,7 +45215,7 @@
         <v>259</v>
       </c>
       <c r="E336" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F336" s="4" t="str">
         <f t="shared" si="8"/>
@@ -45344,7 +45341,7 @@
         <v>70</v>
       </c>
       <c r="E337" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F337" s="4" t="str">
         <f t="shared" si="8"/>
@@ -45470,7 +45467,7 @@
         <v>48</v>
       </c>
       <c r="E338" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F338" s="4" t="str">
         <f t="shared" si="8"/>
@@ -45596,7 +45593,7 @@
         <v>54</v>
       </c>
       <c r="E339" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F339" s="4" t="str">
         <f t="shared" si="8"/>
@@ -45722,7 +45719,7 @@
         <v>145</v>
       </c>
       <c r="E340" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F340" s="4">
         <f t="shared" si="8"/>
@@ -45848,7 +45845,7 @@
         <v>54</v>
       </c>
       <c r="E341" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F341" s="4">
         <f t="shared" si="8"/>
@@ -45968,13 +45965,13 @@
         <v>17832</v>
       </c>
       <c r="C342" s="33" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D342" s="33" t="s">
         <v>40</v>
       </c>
       <c r="E342" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F342" s="4" t="str">
         <f t="shared" si="8"/>
@@ -46100,7 +46097,7 @@
         <v>29</v>
       </c>
       <c r="E343" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F343" s="4">
         <f t="shared" si="8"/>
@@ -46226,7 +46223,7 @@
         <v>36</v>
       </c>
       <c r="E344" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F344" s="4">
         <f t="shared" si="8"/>
@@ -46352,7 +46349,7 @@
         <v>36</v>
       </c>
       <c r="E345" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F345" s="4">
         <f t="shared" si="8"/>
@@ -46478,7 +46475,7 @@
         <v>70</v>
       </c>
       <c r="E346" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F346" s="4" t="str">
         <f t="shared" si="8"/>
@@ -46604,7 +46601,7 @@
         <v>111</v>
       </c>
       <c r="E347" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F347" s="4">
         <f t="shared" si="8"/>
@@ -46730,7 +46727,7 @@
         <v>90</v>
       </c>
       <c r="E348" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F348" s="4" t="str">
         <f t="shared" si="8"/>
@@ -46856,7 +46853,7 @@
         <v>31</v>
       </c>
       <c r="E349" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F349" s="4" t="str">
         <f t="shared" si="8"/>
@@ -46982,7 +46979,7 @@
         <v>46</v>
       </c>
       <c r="E350" s="33" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F350" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47108,7 +47105,7 @@
         <v>93</v>
       </c>
       <c r="E351" s="33" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F351" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47234,7 +47231,7 @@
         <v>29</v>
       </c>
       <c r="E352" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F352" s="4">
         <f t="shared" si="8"/>
@@ -47360,7 +47357,7 @@
         <v>93</v>
       </c>
       <c r="E353" s="33" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F353" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47486,7 +47483,7 @@
         <v>93</v>
       </c>
       <c r="E354" s="33" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F354" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47612,7 +47609,7 @@
         <v>111</v>
       </c>
       <c r="E355" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F355" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47738,7 +47735,7 @@
         <v>31</v>
       </c>
       <c r="E356" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F356" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47864,7 +47861,7 @@
         <v>40</v>
       </c>
       <c r="E357" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F357" s="4" t="str">
         <f t="shared" si="8"/>
@@ -47990,7 +47987,7 @@
         <v>142</v>
       </c>
       <c r="E358" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F358" s="4" t="str">
         <f t="shared" si="8"/>
@@ -48116,7 +48113,7 @@
         <v>248</v>
       </c>
       <c r="E359" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F359" s="4" t="str">
         <f t="shared" si="8"/>
@@ -48242,7 +48239,7 @@
         <v>371</v>
       </c>
       <c r="E360" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F360" s="4" t="str">
         <f t="shared" si="8"/>
@@ -48368,7 +48365,7 @@
         <v>25</v>
       </c>
       <c r="E361" s="33" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="F361" s="4" t="str">
         <f t="shared" si="8"/>
@@ -48494,7 +48491,7 @@
         <v>36</v>
       </c>
       <c r="E362" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F362" s="4">
         <f t="shared" si="8"/>
@@ -48620,7 +48617,7 @@
         <v>96</v>
       </c>
       <c r="E363" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F363" s="4" t="str">
         <f t="shared" si="8"/>
@@ -48740,13 +48737,13 @@
         <v>19157</v>
       </c>
       <c r="C364" s="33" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D364" s="33" t="s">
         <v>38</v>
       </c>
       <c r="E364" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F364" s="4">
         <f t="shared" si="8"/>
@@ -48866,13 +48863,13 @@
         <v>19157</v>
       </c>
       <c r="C365" s="33" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D365" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E365" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F365" s="4">
         <f t="shared" si="8"/>
@@ -48998,7 +48995,7 @@
         <v>90</v>
       </c>
       <c r="E366" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F366" s="4" t="str">
         <f t="shared" si="8"/>
@@ -49124,7 +49121,7 @@
         <v>46</v>
       </c>
       <c r="E367" s="33" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F367" s="4" t="str">
         <f t="shared" si="8"/>
@@ -49244,13 +49241,13 @@
         <v>19327</v>
       </c>
       <c r="C368" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D368" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E368" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F368" s="4">
         <f t="shared" si="8"/>
@@ -49376,7 +49373,7 @@
         <v>116</v>
       </c>
       <c r="E369" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F369" s="4">
         <f t="shared" si="8"/>
@@ -49502,7 +49499,7 @@
         <v>142</v>
       </c>
       <c r="E370" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F370" s="4">
         <f t="shared" si="8"/>
@@ -49628,7 +49625,7 @@
         <v>54</v>
       </c>
       <c r="E371" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F371" s="4">
         <f t="shared" si="8"/>
@@ -49754,7 +49751,7 @@
         <v>104</v>
       </c>
       <c r="E372" s="33" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F372" s="4">
         <f t="shared" si="8"/>
@@ -49880,7 +49877,7 @@
         <v>229</v>
       </c>
       <c r="E373" s="33" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F373" s="4">
         <f t="shared" si="8"/>
@@ -50006,7 +50003,7 @@
         <v>77</v>
       </c>
       <c r="E374" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F374" s="4">
         <f t="shared" si="8"/>
@@ -50132,7 +50129,7 @@
         <v>46</v>
       </c>
       <c r="E375" s="33" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F375" s="4" t="str">
         <f t="shared" si="8"/>
@@ -50258,7 +50255,7 @@
         <v>64</v>
       </c>
       <c r="E376" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F376" s="4">
         <f t="shared" si="8"/>
@@ -50384,7 +50381,7 @@
         <v>77</v>
       </c>
       <c r="E377" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F377" s="4">
         <f t="shared" si="8"/>
@@ -50504,13 +50501,13 @@
         <v>19798</v>
       </c>
       <c r="C378" s="33" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D378" s="33" t="s">
         <v>42</v>
       </c>
       <c r="E378" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F378" s="4" t="str">
         <f t="shared" si="8"/>
@@ -50636,7 +50633,7 @@
         <v>29</v>
       </c>
       <c r="E379" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F379" s="4">
         <f t="shared" si="8"/>
@@ -50762,7 +50759,7 @@
         <v>72</v>
       </c>
       <c r="E380" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F380" s="4" t="str">
         <f t="shared" si="8"/>
@@ -50888,7 +50885,7 @@
         <v>79</v>
       </c>
       <c r="E381" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F381" s="4">
         <f t="shared" si="8"/>
@@ -51014,7 +51011,7 @@
         <v>25</v>
       </c>
       <c r="E382" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F382" s="4">
         <f t="shared" si="8"/>
@@ -51134,13 +51131,13 @@
         <v>19896</v>
       </c>
       <c r="C383" s="33" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D383" s="33" t="s">
         <v>64</v>
       </c>
       <c r="E383" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F383" s="4" t="str">
         <f t="shared" si="8"/>
@@ -51266,7 +51263,7 @@
         <v>36</v>
       </c>
       <c r="E384" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F384" s="4">
         <f t="shared" si="8"/>
@@ -51392,7 +51389,7 @@
         <v>96</v>
       </c>
       <c r="E385" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F385" s="4">
         <f t="shared" si="8"/>
@@ -51518,7 +51515,7 @@
         <v>70</v>
       </c>
       <c r="E386" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F386" s="4">
         <f t="shared" si="8"/>
@@ -51644,7 +51641,7 @@
         <v>79</v>
       </c>
       <c r="E387" s="33" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F387" s="4" t="str">
         <f t="shared" si="8"/>
@@ -51770,7 +51767,7 @@
         <v>36</v>
       </c>
       <c r="E388" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F388" s="4">
         <f t="shared" si="8"/>
@@ -51896,7 +51893,7 @@
         <v>89</v>
       </c>
       <c r="E389" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F389" s="4">
         <f t="shared" ref="F389:H430" si="10">IFERROR(SUM(AD389,AI389)*10^3/T389,"")</f>
@@ -52022,7 +52019,7 @@
         <v>64</v>
       </c>
       <c r="E390" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F390" s="4">
         <f t="shared" si="10"/>
@@ -52148,7 +52145,7 @@
         <v>54</v>
       </c>
       <c r="E391" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F391" s="4" t="str">
         <f t="shared" si="10"/>
@@ -52274,7 +52271,7 @@
         <v>70</v>
       </c>
       <c r="E392" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F392" s="4" t="str">
         <f t="shared" si="10"/>
@@ -52400,7 +52397,7 @@
         <v>54</v>
       </c>
       <c r="E393" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F393" s="4">
         <f t="shared" si="10"/>
@@ -52520,13 +52517,13 @@
         <v>20477</v>
       </c>
       <c r="C394" s="33" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D394" s="33" t="s">
         <v>96</v>
       </c>
       <c r="E394" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F394" s="4">
         <f t="shared" si="10"/>
@@ -52652,7 +52649,7 @@
         <v>44</v>
       </c>
       <c r="E395" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F395" s="4">
         <f t="shared" si="10"/>
@@ -52772,13 +52769,13 @@
         <v>20603</v>
       </c>
       <c r="C396" s="33" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D396" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E396" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F396" s="4">
         <f t="shared" si="10"/>
@@ -52904,7 +52901,7 @@
         <v>36</v>
       </c>
       <c r="E397" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F397" s="4">
         <f t="shared" si="10"/>
@@ -53030,7 +53027,7 @@
         <v>36</v>
       </c>
       <c r="E398" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F398" s="4">
         <f t="shared" si="10"/>
@@ -53156,7 +53153,7 @@
         <v>64</v>
       </c>
       <c r="E399" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F399" s="4">
         <f t="shared" si="10"/>
@@ -53282,7 +53279,7 @@
         <v>31</v>
       </c>
       <c r="E400" s="33" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F400" s="4">
         <f t="shared" si="10"/>
@@ -53408,7 +53405,7 @@
         <v>29</v>
       </c>
       <c r="E401" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F401" s="4" t="str">
         <f t="shared" si="10"/>
@@ -53534,7 +53531,7 @@
         <v>29</v>
       </c>
       <c r="E402" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F402" s="4" t="str">
         <f t="shared" si="10"/>
@@ -53654,13 +53651,13 @@
         <v>20858</v>
       </c>
       <c r="C403" s="33" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D403" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E403" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F403" s="4" t="str">
         <f t="shared" si="10"/>
@@ -53786,7 +53783,7 @@
         <v>29</v>
       </c>
       <c r="E404" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F404" s="4">
         <f t="shared" si="10"/>
@@ -53912,7 +53909,7 @@
         <v>48</v>
       </c>
       <c r="E405" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F405" s="4" t="str">
         <f t="shared" si="10"/>
@@ -54038,7 +54035,7 @@
         <v>62</v>
       </c>
       <c r="E406" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F406" s="4">
         <f t="shared" si="10"/>
@@ -54164,7 +54161,7 @@
         <v>36</v>
       </c>
       <c r="E407" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F407" s="4">
         <f t="shared" si="10"/>
@@ -54290,7 +54287,7 @@
         <v>25</v>
       </c>
       <c r="E408" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F408" s="4">
         <f t="shared" si="10"/>
@@ -54410,13 +54407,13 @@
         <v>21554</v>
       </c>
       <c r="C409" s="33" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D409" s="33" t="s">
         <v>93</v>
       </c>
       <c r="E409" s="33" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F409" s="4" t="str">
         <f t="shared" si="10"/>
@@ -54542,7 +54539,7 @@
         <v>79</v>
       </c>
       <c r="E410" s="33" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F410" s="4">
         <f t="shared" si="10"/>
@@ -54668,7 +54665,7 @@
         <v>72</v>
       </c>
       <c r="E411" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F411" s="4" t="str">
         <f t="shared" si="10"/>
@@ -54794,7 +54791,7 @@
         <v>72</v>
       </c>
       <c r="E412" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F412" s="4" t="str">
         <f t="shared" si="10"/>
@@ -54920,7 +54917,7 @@
         <v>46</v>
       </c>
       <c r="E413" s="33" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F413" s="4" t="str">
         <f t="shared" si="10"/>
@@ -55046,7 +55043,7 @@
         <v>77</v>
       </c>
       <c r="E414" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F414" s="4">
         <f t="shared" si="10"/>
@@ -55172,7 +55169,7 @@
         <v>68</v>
       </c>
       <c r="E415" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F415" s="4" t="str">
         <f t="shared" si="10"/>
@@ -55298,7 +55295,7 @@
         <v>40</v>
       </c>
       <c r="E416" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F416" s="4" t="str">
         <f t="shared" si="10"/>
@@ -55424,7 +55421,7 @@
         <v>36</v>
       </c>
       <c r="E417" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F417" s="4">
         <f t="shared" si="10"/>
@@ -55550,7 +55547,7 @@
         <v>36</v>
       </c>
       <c r="E418" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F418" s="4">
         <f t="shared" si="10"/>
@@ -55676,7 +55673,7 @@
         <v>54</v>
       </c>
       <c r="E419" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F419" s="4" t="str">
         <f t="shared" si="10"/>
@@ -55802,7 +55799,7 @@
         <v>291</v>
       </c>
       <c r="E420" s="33" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F420" s="4" t="str">
         <f t="shared" si="10"/>
@@ -55928,7 +55925,7 @@
         <v>27</v>
       </c>
       <c r="E421" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F421" s="4">
         <f t="shared" si="10"/>
@@ -56054,7 +56051,7 @@
         <v>68</v>
       </c>
       <c r="E422" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F422" s="4">
         <f t="shared" si="10"/>
@@ -56180,7 +56177,7 @@
         <v>68</v>
       </c>
       <c r="E423" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F423" s="4">
         <f t="shared" si="10"/>
@@ -56306,7 +56303,7 @@
         <v>106</v>
       </c>
       <c r="E424" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F424" s="4">
         <f t="shared" si="10"/>
@@ -56432,7 +56429,7 @@
         <v>40</v>
       </c>
       <c r="E425" s="33" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F425" s="4" t="str">
         <f t="shared" si="10"/>
@@ -56558,7 +56555,7 @@
         <v>25</v>
       </c>
       <c r="E426" s="33" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F426" s="4">
         <f t="shared" si="10"/>
@@ -56684,7 +56681,7 @@
         <v>54</v>
       </c>
       <c r="E427" s="33" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F427" s="4">
         <f t="shared" si="10"/>
@@ -56810,7 +56807,7 @@
         <v>42</v>
       </c>
       <c r="E428" s="33" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F428" s="4" t="str">
         <f t="shared" si="10"/>
@@ -56936,7 +56933,7 @@
         <v>54</v>
       </c>
       <c r="E429" s="33" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F429" s="4" t="str">
         <f t="shared" si="10"/>
@@ -57056,13 +57053,13 @@
         <v>58127</v>
       </c>
       <c r="C430" s="33" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D430" s="33" t="s">
         <v>111</v>
       </c>
       <c r="E430" s="33" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F430" s="4" t="str">
         <f t="shared" si="10"/>
@@ -57188,7 +57185,7 @@
         <v>90</v>
       </c>
       <c r="E431" s="33" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F431" s="4">
         <f t="shared" ref="F431:H432" si="11">IFERROR(SUM(AD431,AI431)*10^3/T431,"")</f>
@@ -57308,27 +57305,27 @@
         <v>60631</v>
       </c>
       <c r="C432" s="33" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D432" s="33" t="s">
         <v>116</v>
       </c>
       <c r="E432" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="F432" s="61">
+        <v>466</v>
+      </c>
+      <c r="F432" s="36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G432" s="62" t="str">
+      <c r="G432" s="37" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H432" s="62">
+      <c r="H432" s="37">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I432" s="63" t="str">
+      <c r="I432" s="38" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -57461,34 +57458,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>561</v>
+      <c r="A1" s="39" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>440</v>
@@ -57585,7 +57582,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -57595,9 +57592,12 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>555</v>
+      </c>
       <c r="B1" s="14" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -57611,7 +57611,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>554</v>
       </c>
       <c r="B3" s="11">
         <f>Calculations!B17*About!$A$34</f>
@@ -57620,7 +57620,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" s="11">
         <f>Calculations!B16*About!$A$34</f>
@@ -57629,59 +57629,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" s="11">
-        <f>B$3</f>
-        <v>23383.101272803659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" ref="B7:B10" si="0">B$3</f>
-        <v>23383.101272803659</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="0"/>
-        <v>23383.101272803659</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -57690,7 +57646,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -57700,8 +57656,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>471</v>
+      <c r="A1" s="65" t="s">
+        <v>557</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>445</v>
@@ -57717,7 +57673,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>554</v>
       </c>
       <c r="B3" s="13">
         <f>Calculations!C17</f>
@@ -57726,7 +57682,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" s="13">
         <f>Calculations!C16</f>
@@ -57735,49 +57691,9 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>467</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF0D7B-AE7E-492D-9F00-BDB69042AD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864CAEB-9947-4FD5-9C40-8138CCB43B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="560">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1735,6 +1735,12 @@
   <si>
     <t>Unit: % of DR (dimensionless)</t>
   </si>
+  <si>
+    <t>We adjust for the EU using the ratio of GDP per capita (see scaling-factors.xlsx).</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
@@ -2540,6 +2546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2615,7 +2622,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2939,26 +2945,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>432</v>
       </c>
@@ -2966,124 +2974,137 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="34">
         <v>0.9143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37">
+        <v>0.73998634397116436</v>
       </c>
     </row>
   </sheetData>
@@ -3109,145 +3130,145 @@
       <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="35" customWidth="1"/>
-    <col min="10" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="43" t="s">
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="49"/>
       <c r="AN1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="49" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52" t="s">
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="49" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="52" t="s">
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="55" t="s">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="58" t="s">
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="61"/>
       <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="31">
         <v>2018</v>
       </c>
@@ -3495,7 +3516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>2018</v>
       </c>
@@ -3621,7 +3642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>2018</v>
       </c>
@@ -3747,7 +3768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>2018</v>
       </c>
@@ -3873,7 +3894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>2018</v>
       </c>
@@ -3999,7 +4020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>2018</v>
       </c>
@@ -4125,7 +4146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>2018</v>
       </c>
@@ -4251,7 +4272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>2018</v>
       </c>
@@ -4377,7 +4398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>2018</v>
       </c>
@@ -4503,7 +4524,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>2018</v>
       </c>
@@ -4629,7 +4650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>2018</v>
       </c>
@@ -4755,7 +4776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>2018</v>
       </c>
@@ -4881,7 +4902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>2018</v>
       </c>
@@ -5007,7 +5028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>2018</v>
       </c>
@@ -5133,7 +5154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>2018</v>
       </c>
@@ -5259,7 +5280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>2018</v>
       </c>
@@ -5385,7 +5406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>2018</v>
       </c>
@@ -5511,7 +5532,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>2018</v>
       </c>
@@ -5637,7 +5658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
@@ -5763,7 +5784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>2018</v>
       </c>
@@ -5889,7 +5910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>2018</v>
       </c>
@@ -6015,7 +6036,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>2018</v>
       </c>
@@ -6141,7 +6162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>2018</v>
       </c>
@@ -6267,7 +6288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>2018</v>
       </c>
@@ -6393,7 +6414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>2018</v>
       </c>
@@ -6519,7 +6540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>2018</v>
       </c>
@@ -6645,7 +6666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>2018</v>
       </c>
@@ -6771,7 +6792,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="31">
         <v>2018</v>
       </c>
@@ -6897,7 +6918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="31">
         <v>2018</v>
       </c>
@@ -7023,7 +7044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>2018</v>
       </c>
@@ -7149,7 +7170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="31">
         <v>2018</v>
       </c>
@@ -7275,7 +7296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="31">
         <v>2018</v>
       </c>
@@ -7401,7 +7422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>2018</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A37" s="31">
         <v>2018</v>
       </c>
@@ -7653,7 +7674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A38" s="31">
         <v>2018</v>
       </c>
@@ -7779,7 +7800,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="31">
         <v>2018</v>
       </c>
@@ -7905,7 +7926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="31">
         <v>2018</v>
       </c>
@@ -8031,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="31">
         <v>2018</v>
       </c>
@@ -8157,7 +8178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="31">
         <v>2018</v>
       </c>
@@ -8283,7 +8304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="31">
         <v>2018</v>
       </c>
@@ -8409,7 +8430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A44" s="31">
         <v>2018</v>
       </c>
@@ -8535,7 +8556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A45" s="31">
         <v>2018</v>
       </c>
@@ -8661,7 +8682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="31">
         <v>2018</v>
       </c>
@@ -8787,7 +8808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="31">
         <v>2018</v>
       </c>
@@ -8913,7 +8934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="31">
         <v>2018</v>
       </c>
@@ -9039,7 +9060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="31">
         <v>2018</v>
       </c>
@@ -9165,7 +9186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -9291,7 +9312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="31">
         <v>2018</v>
       </c>
@@ -9417,7 +9438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="31">
         <v>2018</v>
       </c>
@@ -9543,7 +9564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="31">
         <v>2018</v>
       </c>
@@ -9669,7 +9690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="31">
         <v>2018</v>
       </c>
@@ -9795,7 +9816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="31">
         <v>2018</v>
       </c>
@@ -9921,7 +9942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="31">
         <v>2018</v>
       </c>
@@ -10047,7 +10068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="31">
         <v>2018</v>
       </c>
@@ -10173,7 +10194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="31">
         <v>2018</v>
       </c>
@@ -10299,7 +10320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="31">
         <v>2018</v>
       </c>
@@ -10425,7 +10446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A60" s="31">
         <v>2018</v>
       </c>
@@ -10551,7 +10572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A61" s="31">
         <v>2018</v>
       </c>
@@ -10677,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A62" s="31">
         <v>2018</v>
       </c>
@@ -10803,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A63" s="31">
         <v>2018</v>
       </c>
@@ -10929,7 +10950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="31">
         <v>2018</v>
       </c>
@@ -11055,7 +11076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="31">
         <v>2018</v>
       </c>
@@ -11181,7 +11202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A66" s="31">
         <v>2018</v>
       </c>
@@ -11307,7 +11328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="31">
         <v>2018</v>
       </c>
@@ -11433,7 +11454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="31">
         <v>2018</v>
       </c>
@@ -11559,7 +11580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="31">
         <v>2018</v>
       </c>
@@ -11685,7 +11706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="31">
         <v>2018</v>
       </c>
@@ -11811,7 +11832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="31">
         <v>2018</v>
       </c>
@@ -11937,7 +11958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="31">
         <v>2018</v>
       </c>
@@ -12063,7 +12084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="31">
         <v>2018</v>
       </c>
@@ -12189,7 +12210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="31">
         <v>2018</v>
       </c>
@@ -12315,7 +12336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A75" s="31">
         <v>2018</v>
       </c>
@@ -12441,7 +12462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="31">
         <v>2018</v>
       </c>
@@ -12567,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="31">
         <v>2018</v>
       </c>
@@ -12693,7 +12714,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="31">
         <v>2018</v>
       </c>
@@ -12819,7 +12840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A79" s="31">
         <v>2018</v>
       </c>
@@ -12945,7 +12966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="31">
         <v>2018</v>
       </c>
@@ -13071,7 +13092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="31">
         <v>2018</v>
       </c>
@@ -13197,7 +13218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="31">
         <v>2018</v>
       </c>
@@ -13323,7 +13344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A83" s="31">
         <v>2018</v>
       </c>
@@ -13449,7 +13470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="31">
         <v>2018</v>
       </c>
@@ -13575,7 +13596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="31">
         <v>2018</v>
       </c>
@@ -13701,7 +13722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="31">
         <v>2018</v>
       </c>
@@ -13827,7 +13848,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="31">
         <v>2018</v>
       </c>
@@ -13953,7 +13974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="31">
         <v>2018</v>
       </c>
@@ -14079,7 +14100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="31">
         <v>2018</v>
       </c>
@@ -14205,7 +14226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A90" s="31">
         <v>2018</v>
       </c>
@@ -14331,7 +14352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="31">
         <v>2018</v>
       </c>
@@ -14457,7 +14478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="31">
         <v>2018</v>
       </c>
@@ -14583,7 +14604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="31">
         <v>2018</v>
       </c>
@@ -14709,7 +14730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="31">
         <v>2018</v>
       </c>
@@ -14835,7 +14856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="31">
         <v>2018</v>
       </c>
@@ -14961,7 +14982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A96" s="31">
         <v>2018</v>
       </c>
@@ -15087,7 +15108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="31">
         <v>2018</v>
       </c>
@@ -15213,7 +15234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="31">
         <v>2018</v>
       </c>
@@ -15339,7 +15360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A99" s="31">
         <v>2018</v>
       </c>
@@ -15465,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A100" s="31">
         <v>2018</v>
       </c>
@@ -15591,7 +15612,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="31">
         <v>2018</v>
       </c>
@@ -15717,7 +15738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="31">
         <v>2018</v>
       </c>
@@ -15843,7 +15864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="31">
         <v>2018</v>
       </c>
@@ -15969,7 +15990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="31">
         <v>2018</v>
       </c>
@@ -16095,7 +16116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="31">
         <v>2018</v>
       </c>
@@ -16221,7 +16242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A106" s="31">
         <v>2018</v>
       </c>
@@ -16347,7 +16368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A107" s="31">
         <v>2018</v>
       </c>
@@ -16473,7 +16494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A108" s="31">
         <v>2018</v>
       </c>
@@ -16599,7 +16620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A109" s="31">
         <v>2018</v>
       </c>
@@ -16725,7 +16746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A110" s="31">
         <v>2018</v>
       </c>
@@ -16851,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A111" s="31">
         <v>2018</v>
       </c>
@@ -16977,7 +16998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A112" s="31">
         <v>2018</v>
       </c>
@@ -17103,7 +17124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A113" s="31">
         <v>2018</v>
       </c>
@@ -17229,7 +17250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A114" s="31">
         <v>2018</v>
       </c>
@@ -17355,7 +17376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A115" s="31">
         <v>2018</v>
       </c>
@@ -17481,7 +17502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A116" s="31">
         <v>2018</v>
       </c>
@@ -17607,7 +17628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A117" s="31">
         <v>2018</v>
       </c>
@@ -17733,7 +17754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A118" s="31">
         <v>2018</v>
       </c>
@@ -17859,7 +17880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A119" s="31">
         <v>2018</v>
       </c>
@@ -17985,7 +18006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A120" s="31">
         <v>2018</v>
       </c>
@@ -18111,7 +18132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A121" s="31">
         <v>2018</v>
       </c>
@@ -18237,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A122" s="31">
         <v>2018</v>
       </c>
@@ -18363,7 +18384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A123" s="31">
         <v>2018</v>
       </c>
@@ -18489,7 +18510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A124" s="31">
         <v>2018</v>
       </c>
@@ -18615,7 +18636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A125" s="31">
         <v>2018</v>
       </c>
@@ -18741,7 +18762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A126" s="31">
         <v>2018</v>
       </c>
@@ -18867,7 +18888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A127" s="31">
         <v>2018</v>
       </c>
@@ -18993,7 +19014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A128" s="31">
         <v>2018</v>
       </c>
@@ -19119,7 +19140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A129" s="31">
         <v>2018</v>
       </c>
@@ -19245,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A130" s="31">
         <v>2018</v>
       </c>
@@ -19371,7 +19392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A131" s="31">
         <v>2018</v>
       </c>
@@ -19497,7 +19518,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A132" s="31">
         <v>2018</v>
       </c>
@@ -19623,7 +19644,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A133" s="31">
         <v>2018</v>
       </c>
@@ -19749,7 +19770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A134" s="31">
         <v>2018</v>
       </c>
@@ -19875,7 +19896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A135" s="31">
         <v>2018</v>
       </c>
@@ -20001,7 +20022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A136" s="31">
         <v>2018</v>
       </c>
@@ -20127,7 +20148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A137" s="31">
         <v>2018</v>
       </c>
@@ -20253,7 +20274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A138" s="31">
         <v>2018</v>
       </c>
@@ -20379,7 +20400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A139" s="31">
         <v>2018</v>
       </c>
@@ -20505,7 +20526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A140" s="31">
         <v>2018</v>
       </c>
@@ -20631,7 +20652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A141" s="31">
         <v>2018</v>
       </c>
@@ -20757,7 +20778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>2018</v>
       </c>
@@ -20883,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>2018</v>
       </c>
@@ -21009,7 +21030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>2018</v>
       </c>
@@ -21135,7 +21156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>2018</v>
       </c>
@@ -21261,7 +21282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>2018</v>
       </c>
@@ -21387,7 +21408,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A147" s="31">
         <v>2018</v>
       </c>
@@ -21513,7 +21534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A148" s="31">
         <v>2018</v>
       </c>
@@ -21639,7 +21660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A149" s="31">
         <v>2018</v>
       </c>
@@ -21765,7 +21786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A150" s="31">
         <v>2018</v>
       </c>
@@ -21891,7 +21912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A151" s="31">
         <v>2018</v>
       </c>
@@ -22017,7 +22038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A152" s="31">
         <v>2018</v>
       </c>
@@ -22143,7 +22164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A153" s="31">
         <v>2018</v>
       </c>
@@ -22269,7 +22290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A154" s="31">
         <v>2018</v>
       </c>
@@ -22395,7 +22416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A155" s="31">
         <v>2018</v>
       </c>
@@ -22521,7 +22542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A156" s="31">
         <v>2018</v>
       </c>
@@ -22647,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A157" s="31">
         <v>2018</v>
       </c>
@@ -22773,7 +22794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A158" s="31">
         <v>2018</v>
       </c>
@@ -22899,7 +22920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A159" s="31">
         <v>2018</v>
       </c>
@@ -23025,7 +23046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A160" s="31">
         <v>2018</v>
       </c>
@@ -23151,7 +23172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A161" s="31">
         <v>2018</v>
       </c>
@@ -23277,7 +23298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A162" s="31">
         <v>2018</v>
       </c>
@@ -23403,7 +23424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A163" s="31">
         <v>2018</v>
       </c>
@@ -23529,7 +23550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A164" s="31">
         <v>2018</v>
       </c>
@@ -23655,7 +23676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A165" s="31">
         <v>2018</v>
       </c>
@@ -23781,7 +23802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A166" s="31">
         <v>2018</v>
       </c>
@@ -23907,7 +23928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A167" s="31">
         <v>2018</v>
       </c>
@@ -24033,7 +24054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A168" s="31">
         <v>2018</v>
       </c>
@@ -24159,7 +24180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A169" s="31">
         <v>2018</v>
       </c>
@@ -24285,7 +24306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A170" s="31">
         <v>2018</v>
       </c>
@@ -24411,7 +24432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A171" s="31">
         <v>2018</v>
       </c>
@@ -24537,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A172" s="31">
         <v>2018</v>
       </c>
@@ -24663,7 +24684,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A173" s="31">
         <v>2018</v>
       </c>
@@ -24789,7 +24810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A174" s="31">
         <v>2018</v>
       </c>
@@ -24915,7 +24936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A175" s="31">
         <v>2018</v>
       </c>
@@ -25041,7 +25062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A176" s="31">
         <v>2018</v>
       </c>
@@ -25167,7 +25188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A177" s="31">
         <v>2018</v>
       </c>
@@ -25293,7 +25314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A178" s="31">
         <v>2018</v>
       </c>
@@ -25419,7 +25440,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A179" s="31">
         <v>2018</v>
       </c>
@@ -25545,7 +25566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A180" s="31">
         <v>2018</v>
       </c>
@@ -25671,7 +25692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A181" s="31">
         <v>2018</v>
       </c>
@@ -25797,7 +25818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A182" s="31">
         <v>2018</v>
       </c>
@@ -25923,7 +25944,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A183" s="31">
         <v>2018</v>
       </c>
@@ -26049,7 +26070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A184" s="31">
         <v>2018</v>
       </c>
@@ -26175,7 +26196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A185" s="31">
         <v>2018</v>
       </c>
@@ -26301,7 +26322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A186" s="31">
         <v>2018</v>
       </c>
@@ -26427,7 +26448,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A187" s="31">
         <v>2018</v>
       </c>
@@ -26553,7 +26574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A188" s="31">
         <v>2018</v>
       </c>
@@ -26679,7 +26700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A189" s="31">
         <v>2018</v>
       </c>
@@ -26805,7 +26826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A190" s="31">
         <v>2018</v>
       </c>
@@ -26931,7 +26952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A191" s="31">
         <v>2018</v>
       </c>
@@ -27057,7 +27078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A192" s="31">
         <v>2018</v>
       </c>
@@ -27183,7 +27204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A193" s="31">
         <v>2018</v>
       </c>
@@ -27309,7 +27330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A194" s="31">
         <v>2018</v>
       </c>
@@ -27435,7 +27456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A195" s="31">
         <v>2018</v>
       </c>
@@ -27561,7 +27582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A196" s="31">
         <v>2018</v>
       </c>
@@ -27687,7 +27708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A197" s="31">
         <v>2018</v>
       </c>
@@ -27813,7 +27834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A198" s="31">
         <v>2018</v>
       </c>
@@ -27939,7 +27960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A199" s="31">
         <v>2018</v>
       </c>
@@ -28065,7 +28086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A200" s="31">
         <v>2018</v>
       </c>
@@ -28191,7 +28212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A201" s="31">
         <v>2018</v>
       </c>
@@ -28317,7 +28338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A202" s="31">
         <v>2018</v>
       </c>
@@ -28443,7 +28464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A203" s="31">
         <v>2018</v>
       </c>
@@ -28569,7 +28590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A204" s="31">
         <v>2018</v>
       </c>
@@ -28695,7 +28716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A205" s="31">
         <v>2018</v>
       </c>
@@ -28821,7 +28842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A206" s="31">
         <v>2018</v>
       </c>
@@ -28947,7 +28968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A207" s="31">
         <v>2018</v>
       </c>
@@ -29073,7 +29094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A208" s="31">
         <v>2018</v>
       </c>
@@ -29199,7 +29220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A209" s="31">
         <v>2018</v>
       </c>
@@ -29325,7 +29346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A210" s="31">
         <v>2018</v>
       </c>
@@ -29451,7 +29472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A211" s="31">
         <v>2018</v>
       </c>
@@ -29577,7 +29598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A212" s="31">
         <v>2018</v>
       </c>
@@ -29703,7 +29724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A213" s="31">
         <v>2018</v>
       </c>
@@ -29829,7 +29850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A214" s="31">
         <v>2018</v>
       </c>
@@ -29955,7 +29976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A215" s="31">
         <v>2018</v>
       </c>
@@ -30081,7 +30102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A216" s="31">
         <v>2018</v>
       </c>
@@ -30207,7 +30228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A217" s="31">
         <v>2018</v>
       </c>
@@ -30333,7 +30354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A218" s="31">
         <v>2018</v>
       </c>
@@ -30459,7 +30480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A219" s="31">
         <v>2018</v>
       </c>
@@ -30585,7 +30606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A220" s="31">
         <v>2018</v>
       </c>
@@ -30711,7 +30732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A221" s="31">
         <v>2018</v>
       </c>
@@ -30837,7 +30858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A222" s="31">
         <v>2018</v>
       </c>
@@ -30963,7 +30984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A223" s="31">
         <v>2018</v>
       </c>
@@ -31089,7 +31110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A224" s="31">
         <v>2018</v>
       </c>
@@ -31215,7 +31236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A225" s="31">
         <v>2018</v>
       </c>
@@ -31341,7 +31362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A226" s="31">
         <v>2018</v>
       </c>
@@ -31467,7 +31488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A227" s="31">
         <v>2018</v>
       </c>
@@ -31593,7 +31614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A228" s="31">
         <v>2018</v>
       </c>
@@ -31719,7 +31740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A229" s="31">
         <v>2018</v>
       </c>
@@ -31845,7 +31866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A230" s="31">
         <v>2018</v>
       </c>
@@ -31971,7 +31992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A231" s="31">
         <v>2018</v>
       </c>
@@ -32097,7 +32118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A232" s="31">
         <v>2018</v>
       </c>
@@ -32223,7 +32244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A233" s="31">
         <v>2018</v>
       </c>
@@ -32349,7 +32370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A234" s="31">
         <v>2018</v>
       </c>
@@ -32475,7 +32496,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A235" s="31">
         <v>2018</v>
       </c>
@@ -32601,7 +32622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A236" s="31">
         <v>2018</v>
       </c>
@@ -32727,7 +32748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A237" s="31">
         <v>2018</v>
       </c>
@@ -32853,7 +32874,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A238" s="31">
         <v>2018</v>
       </c>
@@ -32979,7 +33000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A239" s="31">
         <v>2018</v>
       </c>
@@ -33105,7 +33126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A240" s="31">
         <v>2018</v>
       </c>
@@ -33231,7 +33252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A241" s="31">
         <v>2018</v>
       </c>
@@ -33357,7 +33378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A242" s="31">
         <v>2018</v>
       </c>
@@ -33483,7 +33504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A243" s="31">
         <v>2018</v>
       </c>
@@ -33609,7 +33630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A244" s="31">
         <v>2018</v>
       </c>
@@ -33735,7 +33756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A245" s="31">
         <v>2018</v>
       </c>
@@ -33861,7 +33882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A246" s="31">
         <v>2018</v>
       </c>
@@ -33987,7 +34008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A247" s="31">
         <v>2018</v>
       </c>
@@ -34113,7 +34134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A248" s="31">
         <v>2018</v>
       </c>
@@ -34239,7 +34260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A249" s="31">
         <v>2018</v>
       </c>
@@ -34365,7 +34386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A250" s="31">
         <v>2018</v>
       </c>
@@ -34491,7 +34512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A251" s="31">
         <v>2018</v>
       </c>
@@ -34617,7 +34638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A252" s="31">
         <v>2018</v>
       </c>
@@ -34743,7 +34764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A253" s="31">
         <v>2018</v>
       </c>
@@ -34869,7 +34890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A254" s="31">
         <v>2018</v>
       </c>
@@ -34995,7 +35016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A255" s="31">
         <v>2018</v>
       </c>
@@ -35121,7 +35142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A256" s="31">
         <v>2018</v>
       </c>
@@ -35247,7 +35268,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A257" s="31">
         <v>2018</v>
       </c>
@@ -35373,7 +35394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A258" s="31">
         <v>2018</v>
       </c>
@@ -35499,7 +35520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A259" s="31">
         <v>2018</v>
       </c>
@@ -35625,7 +35646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A260" s="31">
         <v>2018</v>
       </c>
@@ -35751,7 +35772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A261" s="31">
         <v>2018</v>
       </c>
@@ -35877,7 +35898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A262" s="31">
         <v>2018</v>
       </c>
@@ -36003,7 +36024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A263" s="31">
         <v>2018</v>
       </c>
@@ -36129,7 +36150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A264" s="31">
         <v>2018</v>
       </c>
@@ -36255,7 +36276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A265" s="31">
         <v>2018</v>
       </c>
@@ -36381,7 +36402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A266" s="31">
         <v>2018</v>
       </c>
@@ -36507,7 +36528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A267" s="31">
         <v>2018</v>
       </c>
@@ -36633,7 +36654,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A268" s="31">
         <v>2018</v>
       </c>
@@ -36759,7 +36780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A269" s="31">
         <v>2018</v>
       </c>
@@ -36885,7 +36906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A270" s="31">
         <v>2018</v>
       </c>
@@ -37011,7 +37032,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A271" s="31">
         <v>2018</v>
       </c>
@@ -37137,7 +37158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A272" s="31">
         <v>2018</v>
       </c>
@@ -37263,7 +37284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A273" s="31">
         <v>2018</v>
       </c>
@@ -37389,7 +37410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A274" s="31">
         <v>2018</v>
       </c>
@@ -37515,7 +37536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A275" s="31">
         <v>2018</v>
       </c>
@@ -37641,7 +37662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A276" s="31">
         <v>2018</v>
       </c>
@@ -37767,7 +37788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A277" s="31">
         <v>2018</v>
       </c>
@@ -37893,7 +37914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A278" s="31">
         <v>2018</v>
       </c>
@@ -38019,7 +38040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A279" s="31">
         <v>2018</v>
       </c>
@@ -38145,7 +38166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A280" s="31">
         <v>2018</v>
       </c>
@@ -38271,7 +38292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A281" s="31">
         <v>2018</v>
       </c>
@@ -38397,7 +38418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A282" s="31">
         <v>2018</v>
       </c>
@@ -38523,7 +38544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A283" s="31">
         <v>2018</v>
       </c>
@@ -38649,7 +38670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A284" s="31">
         <v>2018</v>
       </c>
@@ -38775,7 +38796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A285" s="31">
         <v>2018</v>
       </c>
@@ -38901,7 +38922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A286" s="31">
         <v>2018</v>
       </c>
@@ -39027,7 +39048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A287" s="31">
         <v>2018</v>
       </c>
@@ -39153,7 +39174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A288" s="31">
         <v>2018</v>
       </c>
@@ -39279,7 +39300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A289" s="31">
         <v>2018</v>
       </c>
@@ -39405,7 +39426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A290" s="31">
         <v>2018</v>
       </c>
@@ -39531,7 +39552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A291" s="31">
         <v>2018</v>
       </c>
@@ -39657,7 +39678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A292" s="31">
         <v>2018</v>
       </c>
@@ -39783,7 +39804,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A293" s="31">
         <v>2018</v>
       </c>
@@ -39909,7 +39930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A294" s="31">
         <v>2018</v>
       </c>
@@ -40035,7 +40056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A295" s="31">
         <v>2018</v>
       </c>
@@ -40161,7 +40182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A296" s="31">
         <v>2018</v>
       </c>
@@ -40287,7 +40308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A297" s="31">
         <v>2018</v>
       </c>
@@ -40413,7 +40434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A298" s="31">
         <v>2018</v>
       </c>
@@ -40539,7 +40560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A299" s="31">
         <v>2018</v>
       </c>
@@ -40665,7 +40686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A300" s="31">
         <v>2018</v>
       </c>
@@ -40791,7 +40812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A301" s="31">
         <v>2018</v>
       </c>
@@ -40917,7 +40938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A302" s="31">
         <v>2018</v>
       </c>
@@ -41043,7 +41064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A303" s="31">
         <v>2018</v>
       </c>
@@ -41169,7 +41190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A304" s="31">
         <v>2018</v>
       </c>
@@ -41295,7 +41316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A305" s="31">
         <v>2018</v>
       </c>
@@ -41421,7 +41442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A306" s="31">
         <v>2018</v>
       </c>
@@ -41547,7 +41568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A307" s="31">
         <v>2018</v>
       </c>
@@ -41673,7 +41694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A308" s="31">
         <v>2018</v>
       </c>
@@ -41799,7 +41820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A309" s="31">
         <v>2018</v>
       </c>
@@ -41925,7 +41946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A310" s="31">
         <v>2018</v>
       </c>
@@ -42051,7 +42072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A311" s="31">
         <v>2018</v>
       </c>
@@ -42177,7 +42198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A312" s="31">
         <v>2018</v>
       </c>
@@ -42303,7 +42324,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A313" s="31">
         <v>2018</v>
       </c>
@@ -42429,7 +42450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A314" s="31">
         <v>2018</v>
       </c>
@@ -42555,7 +42576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A315" s="31">
         <v>2018</v>
       </c>
@@ -42681,7 +42702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A316" s="31">
         <v>2018</v>
       </c>
@@ -42807,7 +42828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A317" s="31">
         <v>2018</v>
       </c>
@@ -42933,7 +42954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A318" s="31">
         <v>2018</v>
       </c>
@@ -43059,7 +43080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A319" s="31">
         <v>2018</v>
       </c>
@@ -43185,7 +43206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A320" s="31">
         <v>2018</v>
       </c>
@@ -43311,7 +43332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A321" s="31">
         <v>2018</v>
       </c>
@@ -43437,7 +43458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A322" s="31">
         <v>2018</v>
       </c>
@@ -43563,7 +43584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A323" s="31">
         <v>2018</v>
       </c>
@@ -43689,7 +43710,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A324" s="31">
         <v>2018</v>
       </c>
@@ -43815,7 +43836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A325" s="31">
         <v>2018</v>
       </c>
@@ -43941,7 +43962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A326" s="31">
         <v>2018</v>
       </c>
@@ -44067,7 +44088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A327" s="31">
         <v>2018</v>
       </c>
@@ -44193,7 +44214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A328" s="31">
         <v>2018</v>
       </c>
@@ -44319,7 +44340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A329" s="31">
         <v>2018</v>
       </c>
@@ -44445,7 +44466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A330" s="31">
         <v>2018</v>
       </c>
@@ -44571,7 +44592,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A331" s="31">
         <v>2018</v>
       </c>
@@ -44697,7 +44718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A332" s="31">
         <v>2018</v>
       </c>
@@ -44823,7 +44844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A333" s="31">
         <v>2018</v>
       </c>
@@ -44949,7 +44970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A334" s="31">
         <v>2018</v>
       </c>
@@ -45075,7 +45096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A335" s="31">
         <v>2018</v>
       </c>
@@ -45201,7 +45222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A336" s="31">
         <v>2018</v>
       </c>
@@ -45327,7 +45348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A337" s="31">
         <v>2018</v>
       </c>
@@ -45453,7 +45474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A338" s="31">
         <v>2018</v>
       </c>
@@ -45579,7 +45600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A339" s="31">
         <v>2018</v>
       </c>
@@ -45705,7 +45726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A340" s="31">
         <v>2018</v>
       </c>
@@ -45831,7 +45852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A341" s="31">
         <v>2018</v>
       </c>
@@ -45957,7 +45978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A342" s="31">
         <v>2018</v>
       </c>
@@ -46083,7 +46104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A343" s="31">
         <v>2018</v>
       </c>
@@ -46209,7 +46230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A344" s="31">
         <v>2018</v>
       </c>
@@ -46335,7 +46356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A345" s="31">
         <v>2018</v>
       </c>
@@ -46461,7 +46482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A346" s="31">
         <v>2018</v>
       </c>
@@ -46587,7 +46608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A347" s="31">
         <v>2018</v>
       </c>
@@ -46713,7 +46734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A348" s="31">
         <v>2018</v>
       </c>
@@ -46839,7 +46860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A349" s="31">
         <v>2018</v>
       </c>
@@ -46965,7 +46986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A350" s="31">
         <v>2018</v>
       </c>
@@ -47091,7 +47112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A351" s="31">
         <v>2018</v>
       </c>
@@ -47217,7 +47238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A352" s="31">
         <v>2018</v>
       </c>
@@ -47343,7 +47364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A353" s="31">
         <v>2018</v>
       </c>
@@ -47469,7 +47490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A354" s="31">
         <v>2018</v>
       </c>
@@ -47595,7 +47616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A355" s="31">
         <v>2018</v>
       </c>
@@ -47721,7 +47742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A356" s="31">
         <v>2018</v>
       </c>
@@ -47847,7 +47868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A357" s="31">
         <v>2018</v>
       </c>
@@ -47973,7 +47994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A358" s="31">
         <v>2018</v>
       </c>
@@ -48099,7 +48120,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A359" s="31">
         <v>2018</v>
       </c>
@@ -48225,7 +48246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A360" s="31">
         <v>2018</v>
       </c>
@@ -48351,7 +48372,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A361" s="31">
         <v>2018</v>
       </c>
@@ -48477,7 +48498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A362" s="31">
         <v>2018</v>
       </c>
@@ -48603,7 +48624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A363" s="31">
         <v>2018</v>
       </c>
@@ -48729,7 +48750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A364" s="31">
         <v>2018</v>
       </c>
@@ -48855,7 +48876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A365" s="31">
         <v>2018</v>
       </c>
@@ -48981,7 +49002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A366" s="31">
         <v>2018</v>
       </c>
@@ -49107,7 +49128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A367" s="31">
         <v>2018</v>
       </c>
@@ -49233,7 +49254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A368" s="31">
         <v>2018</v>
       </c>
@@ -49359,7 +49380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A369" s="31">
         <v>2018</v>
       </c>
@@ -49485,7 +49506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A370" s="31">
         <v>2018</v>
       </c>
@@ -49611,7 +49632,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A371" s="31">
         <v>2018</v>
       </c>
@@ -49737,7 +49758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A372" s="31">
         <v>2018</v>
       </c>
@@ -49863,7 +49884,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A373" s="31">
         <v>2018</v>
       </c>
@@ -49989,7 +50010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A374" s="31">
         <v>2018</v>
       </c>
@@ -50115,7 +50136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A375" s="31">
         <v>2018</v>
       </c>
@@ -50241,7 +50262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A376" s="31">
         <v>2018</v>
       </c>
@@ -50367,7 +50388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A377" s="31">
         <v>2018</v>
       </c>
@@ -50493,7 +50514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A378" s="31">
         <v>2018</v>
       </c>
@@ -50619,7 +50640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A379" s="31">
         <v>2018</v>
       </c>
@@ -50745,7 +50766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A380" s="31">
         <v>2018</v>
       </c>
@@ -50871,7 +50892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A381" s="31">
         <v>2018</v>
       </c>
@@ -50997,7 +51018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A382" s="31">
         <v>2018</v>
       </c>
@@ -51123,7 +51144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A383" s="31">
         <v>2018</v>
       </c>
@@ -51249,7 +51270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A384" s="31">
         <v>2018</v>
       </c>
@@ -51375,7 +51396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A385" s="31">
         <v>2018</v>
       </c>
@@ -51501,7 +51522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A386" s="31">
         <v>2018</v>
       </c>
@@ -51627,7 +51648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A387" s="31">
         <v>2018</v>
       </c>
@@ -51753,7 +51774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A388" s="31">
         <v>2018</v>
       </c>
@@ -51879,7 +51900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A389" s="31">
         <v>2018</v>
       </c>
@@ -52005,7 +52026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A390" s="31">
         <v>2018</v>
       </c>
@@ -52131,7 +52152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A391" s="31">
         <v>2018</v>
       </c>
@@ -52257,7 +52278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A392" s="31">
         <v>2018</v>
       </c>
@@ -52383,7 +52404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A393" s="31">
         <v>2018</v>
       </c>
@@ -52509,7 +52530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A394" s="31">
         <v>2018</v>
       </c>
@@ -52635,7 +52656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A395" s="31">
         <v>2018</v>
       </c>
@@ -52761,7 +52782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A396" s="31">
         <v>2018</v>
       </c>
@@ -52887,7 +52908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A397" s="31">
         <v>2018</v>
       </c>
@@ -53013,7 +53034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A398" s="31">
         <v>2018</v>
       </c>
@@ -53139,7 +53160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A399" s="31">
         <v>2018</v>
       </c>
@@ -53265,7 +53286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A400" s="31">
         <v>2018</v>
       </c>
@@ -53391,7 +53412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A401" s="31">
         <v>2018</v>
       </c>
@@ -53517,7 +53538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A402" s="31">
         <v>2018</v>
       </c>
@@ -53643,7 +53664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A403" s="31">
         <v>2018</v>
       </c>
@@ -53769,7 +53790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A404" s="31">
         <v>2018</v>
       </c>
@@ -53895,7 +53916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A405" s="31">
         <v>2018</v>
       </c>
@@ -54021,7 +54042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A406" s="31">
         <v>2018</v>
       </c>
@@ -54147,7 +54168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A407" s="31">
         <v>2018</v>
       </c>
@@ -54273,7 +54294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A408" s="31">
         <v>2018</v>
       </c>
@@ -54399,7 +54420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A409" s="31">
         <v>2018</v>
       </c>
@@ -54525,7 +54546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A410" s="31">
         <v>2018</v>
       </c>
@@ -54651,7 +54672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A411" s="31">
         <v>2018</v>
       </c>
@@ -54777,7 +54798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A412" s="31">
         <v>2018</v>
       </c>
@@ -54903,7 +54924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A413" s="31">
         <v>2018</v>
       </c>
@@ -55029,7 +55050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A414" s="31">
         <v>2018</v>
       </c>
@@ -55155,7 +55176,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A415" s="31">
         <v>2018</v>
       </c>
@@ -55281,7 +55302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A416" s="31">
         <v>2018</v>
       </c>
@@ -55407,7 +55428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A417" s="31">
         <v>2018</v>
       </c>
@@ -55533,7 +55554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A418" s="31">
         <v>2018</v>
       </c>
@@ -55659,7 +55680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A419" s="31">
         <v>2018</v>
       </c>
@@ -55785,7 +55806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A420" s="31">
         <v>2018</v>
       </c>
@@ -55911,7 +55932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A421" s="31">
         <v>2018</v>
       </c>
@@ -56037,7 +56058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A422" s="31">
         <v>2018</v>
       </c>
@@ -56163,7 +56184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A423" s="31">
         <v>2018</v>
       </c>
@@ -56289,7 +56310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A424" s="31">
         <v>2018</v>
       </c>
@@ -56415,7 +56436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A425" s="31">
         <v>2018</v>
       </c>
@@ -56541,7 +56562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A426" s="31">
         <v>2018</v>
       </c>
@@ -56667,7 +56688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A427" s="31">
         <v>2018</v>
       </c>
@@ -56793,7 +56814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A428" s="31">
         <v>2018</v>
       </c>
@@ -56919,7 +56940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A429" s="31">
         <v>2018</v>
       </c>
@@ -57045,7 +57066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A430" s="31">
         <v>2018</v>
       </c>
@@ -57171,7 +57192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A431" s="31">
         <v>2018</v>
       </c>
@@ -57297,7 +57318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A432" s="31">
         <v>2018</v>
       </c>
@@ -57449,41 +57470,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>550</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>551</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>552</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>549</v>
       </c>
@@ -57491,7 +57512,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>437</v>
       </c>
@@ -57504,7 +57525,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -57517,7 +57538,7 @@
         <v>0.22725360090629559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -57530,22 +57551,22 @@
         <v>0.49636510762259262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -57558,7 +57579,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -57584,50 +57605,52 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>555</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
+        <f>Calculations!B17*About!$A$34*About!$B$37</f>
+        <v>17303.175621569459</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>554</v>
       </c>
       <c r="B3" s="11">
-        <f>Calculations!B17*About!$A$34</f>
-        <v>23383.101272803659</v>
+        <f>Calculations!B17*About!$A$34*About!$B$37</f>
+        <v>17303.175621569459</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>462</v>
       </c>
       <c r="B4" s="11">
-        <f>Calculations!B16*About!$A$34</f>
-        <v>37946.092485549132</v>
+        <f>Calculations!B16*About!$A$34*About!$B$37</f>
+        <v>28079.590246373176</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>463</v>
       </c>
@@ -57650,20 +57673,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>557</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -57671,7 +57694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>554</v>
       </c>
@@ -57680,7 +57703,7 @@
         <v>0.72361870852888821</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>462</v>
       </c>
@@ -57689,7 +57712,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>463</v>
       </c>

--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\DRCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\DRCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8864CAEB-9947-4FD5-9C40-8138CCB43B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEF0D7B-AE7E-492D-9F00-BDB69042AD95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="558">
   <si>
     <t>Utility Characteristics</t>
   </si>
@@ -1735,12 +1735,6 @@
   <si>
     <t>Unit: % of DR (dimensionless)</t>
   </si>
-  <si>
-    <t>We adjust for the EU using the ratio of GDP per capita (see scaling-factors.xlsx).</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
 </sst>
 </file>
 
@@ -2546,7 +2540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2622,6 +2615,7 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2945,28 +2939,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.26953125" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>432</v>
       </c>
@@ -2974,137 +2966,124 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>0.9143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>559</v>
-      </c>
-      <c r="B37">
-        <v>0.73998634397116436</v>
       </c>
     </row>
   </sheetData>
@@ -3130,145 +3109,145 @@
       <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="35" customWidth="1"/>
-    <col min="10" max="12" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="35" customWidth="1"/>
+    <col min="10" max="12" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
+    <row r="1" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>427</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="44" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="47" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="49"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="48"/>
       <c r="AN1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53" t="s">
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="50" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53" t="s">
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="59" t="s">
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="61"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="60"/>
       <c r="AN2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>2018</v>
       </c>
@@ -3516,7 +3495,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2018</v>
       </c>
@@ -3642,7 +3621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>2018</v>
       </c>
@@ -3768,7 +3747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>2018</v>
       </c>
@@ -3894,7 +3873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2018</v>
       </c>
@@ -4020,7 +3999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2018</v>
       </c>
@@ -4146,7 +4125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2018</v>
       </c>
@@ -4272,7 +4251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2018</v>
       </c>
@@ -4398,7 +4377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2018</v>
       </c>
@@ -4524,7 +4503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2018</v>
       </c>
@@ -4650,7 +4629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>2018</v>
       </c>
@@ -4776,7 +4755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>2018</v>
       </c>
@@ -4902,7 +4881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>2018</v>
       </c>
@@ -5028,7 +5007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>2018</v>
       </c>
@@ -5154,7 +5133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>2018</v>
       </c>
@@ -5280,7 +5259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>2018</v>
       </c>
@@ -5406,7 +5385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>2018</v>
       </c>
@@ -5532,7 +5511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>2018</v>
       </c>
@@ -5658,7 +5637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
         <v>2018</v>
       </c>
@@ -5784,7 +5763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>2018</v>
       </c>
@@ -5910,7 +5889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
         <v>2018</v>
       </c>
@@ -6036,7 +6015,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>2018</v>
       </c>
@@ -6162,7 +6141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
         <v>2018</v>
       </c>
@@ -6288,7 +6267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>2018</v>
       </c>
@@ -6414,7 +6393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
         <v>2018</v>
       </c>
@@ -6540,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>2018</v>
       </c>
@@ -6666,7 +6645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
         <v>2018</v>
       </c>
@@ -6792,7 +6771,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>2018</v>
       </c>
@@ -6918,7 +6897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
         <v>2018</v>
       </c>
@@ -7044,7 +7023,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>2018</v>
       </c>
@@ -7170,7 +7149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
         <v>2018</v>
       </c>
@@ -7296,7 +7275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
         <v>2018</v>
       </c>
@@ -7422,7 +7401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
         <v>2018</v>
       </c>
@@ -7548,7 +7527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
         <v>2018</v>
       </c>
@@ -7674,7 +7653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
         <v>2018</v>
       </c>
@@ -7800,7 +7779,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>2018</v>
       </c>
@@ -7926,7 +7905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
         <v>2018</v>
       </c>
@@ -8052,7 +8031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
         <v>2018</v>
       </c>
@@ -8178,7 +8157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
         <v>2018</v>
       </c>
@@ -8304,7 +8283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
         <v>2018</v>
       </c>
@@ -8430,7 +8409,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
         <v>2018</v>
       </c>
@@ -8556,7 +8535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
         <v>2018</v>
       </c>
@@ -8682,7 +8661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
         <v>2018</v>
       </c>
@@ -8808,7 +8787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
         <v>2018</v>
       </c>
@@ -8934,7 +8913,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
         <v>2018</v>
       </c>
@@ -9060,7 +9039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
         <v>2018</v>
       </c>
@@ -9186,7 +9165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
         <v>2018</v>
       </c>
@@ -9312,7 +9291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
         <v>2018</v>
       </c>
@@ -9438,7 +9417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
         <v>2018</v>
       </c>
@@ -9564,7 +9543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
         <v>2018</v>
       </c>
@@ -9690,7 +9669,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
         <v>2018</v>
       </c>
@@ -9816,7 +9795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
         <v>2018</v>
       </c>
@@ -9942,7 +9921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
         <v>2018</v>
       </c>
@@ -10068,7 +10047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
         <v>2018</v>
       </c>
@@ -10194,7 +10173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
         <v>2018</v>
       </c>
@@ -10320,7 +10299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
         <v>2018</v>
       </c>
@@ -10446,7 +10425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
         <v>2018</v>
       </c>
@@ -10572,7 +10551,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
         <v>2018</v>
       </c>
@@ -10698,7 +10677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
         <v>2018</v>
       </c>
@@ -10824,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
         <v>2018</v>
       </c>
@@ -10950,7 +10929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
         <v>2018</v>
       </c>
@@ -11076,7 +11055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
         <v>2018</v>
       </c>
@@ -11202,7 +11181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
         <v>2018</v>
       </c>
@@ -11328,7 +11307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A67" s="31">
         <v>2018</v>
       </c>
@@ -11454,7 +11433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>2018</v>
       </c>
@@ -11580,7 +11559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A69" s="31">
         <v>2018</v>
       </c>
@@ -11706,7 +11685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A70" s="31">
         <v>2018</v>
       </c>
@@ -11832,7 +11811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A71" s="31">
         <v>2018</v>
       </c>
@@ -11958,7 +11937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A72" s="31">
         <v>2018</v>
       </c>
@@ -12084,7 +12063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A73" s="31">
         <v>2018</v>
       </c>
@@ -12210,7 +12189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A74" s="31">
         <v>2018</v>
       </c>
@@ -12336,7 +12315,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A75" s="31">
         <v>2018</v>
       </c>
@@ -12462,7 +12441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A76" s="31">
         <v>2018</v>
       </c>
@@ -12588,7 +12567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A77" s="31">
         <v>2018</v>
       </c>
@@ -12714,7 +12693,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A78" s="31">
         <v>2018</v>
       </c>
@@ -12840,7 +12819,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A79" s="31">
         <v>2018</v>
       </c>
@@ -12966,7 +12945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A80" s="31">
         <v>2018</v>
       </c>
@@ -13092,7 +13071,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
         <v>2018</v>
       </c>
@@ -13218,7 +13197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
         <v>2018</v>
       </c>
@@ -13344,7 +13323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
         <v>2018</v>
       </c>
@@ -13470,7 +13449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
         <v>2018</v>
       </c>
@@ -13596,7 +13575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A85" s="31">
         <v>2018</v>
       </c>
@@ -13722,7 +13701,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A86" s="31">
         <v>2018</v>
       </c>
@@ -13848,7 +13827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A87" s="31">
         <v>2018</v>
       </c>
@@ -13974,7 +13953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A88" s="31">
         <v>2018</v>
       </c>
@@ -14100,7 +14079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A89" s="31">
         <v>2018</v>
       </c>
@@ -14226,7 +14205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A90" s="31">
         <v>2018</v>
       </c>
@@ -14352,7 +14331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A91" s="31">
         <v>2018</v>
       </c>
@@ -14478,7 +14457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A92" s="31">
         <v>2018</v>
       </c>
@@ -14604,7 +14583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A93" s="31">
         <v>2018</v>
       </c>
@@ -14730,7 +14709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A94" s="31">
         <v>2018</v>
       </c>
@@ -14856,7 +14835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A95" s="31">
         <v>2018</v>
       </c>
@@ -14982,7 +14961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A96" s="31">
         <v>2018</v>
       </c>
@@ -15108,7 +15087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A97" s="31">
         <v>2018</v>
       </c>
@@ -15234,7 +15213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98" s="31">
         <v>2018</v>
       </c>
@@ -15360,7 +15339,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A99" s="31">
         <v>2018</v>
       </c>
@@ -15486,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" s="31">
         <v>2018</v>
       </c>
@@ -15612,7 +15591,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A101" s="31">
         <v>2018</v>
       </c>
@@ -15738,7 +15717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102" s="31">
         <v>2018</v>
       </c>
@@ -15864,7 +15843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="103" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A103" s="31">
         <v>2018</v>
       </c>
@@ -15990,7 +15969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A104" s="31">
         <v>2018</v>
       </c>
@@ -16116,7 +16095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105" s="31">
         <v>2018</v>
       </c>
@@ -16242,7 +16221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A106" s="31">
         <v>2018</v>
       </c>
@@ -16368,7 +16347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A107" s="31">
         <v>2018</v>
       </c>
@@ -16494,7 +16473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108" s="31">
         <v>2018</v>
       </c>
@@ -16620,7 +16599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109" s="31">
         <v>2018</v>
       </c>
@@ -16746,7 +16725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A110" s="31">
         <v>2018</v>
       </c>
@@ -16872,7 +16851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A111" s="31">
         <v>2018</v>
       </c>
@@ -16998,7 +16977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A112" s="31">
         <v>2018</v>
       </c>
@@ -17124,7 +17103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A113" s="31">
         <v>2018</v>
       </c>
@@ -17250,7 +17229,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114" s="31">
         <v>2018</v>
       </c>
@@ -17376,7 +17355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A115" s="31">
         <v>2018</v>
       </c>
@@ -17502,7 +17481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A116" s="31">
         <v>2018</v>
       </c>
@@ -17628,7 +17607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117" s="31">
         <v>2018</v>
       </c>
@@ -17754,7 +17733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118" s="31">
         <v>2018</v>
       </c>
@@ -17880,7 +17859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A119" s="31">
         <v>2018</v>
       </c>
@@ -18006,7 +17985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A120" s="31">
         <v>2018</v>
       </c>
@@ -18132,7 +18111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A121" s="31">
         <v>2018</v>
       </c>
@@ -18258,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122" s="31">
         <v>2018</v>
       </c>
@@ -18384,7 +18363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123" s="31">
         <v>2018</v>
       </c>
@@ -18510,7 +18489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124" s="31">
         <v>2018</v>
       </c>
@@ -18636,7 +18615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125" s="31">
         <v>2018</v>
       </c>
@@ -18762,7 +18741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126" s="31">
         <v>2018</v>
       </c>
@@ -18888,7 +18867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127" s="31">
         <v>2018</v>
       </c>
@@ -19014,7 +18993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A128" s="31">
         <v>2018</v>
       </c>
@@ -19140,7 +19119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A129" s="31">
         <v>2018</v>
       </c>
@@ -19266,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A130" s="31">
         <v>2018</v>
       </c>
@@ -19392,7 +19371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A131" s="31">
         <v>2018</v>
       </c>
@@ -19518,7 +19497,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="132" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132" s="31">
         <v>2018</v>
       </c>
@@ -19644,7 +19623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A133" s="31">
         <v>2018</v>
       </c>
@@ -19770,7 +19749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A134" s="31">
         <v>2018</v>
       </c>
@@ -19896,7 +19875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135" s="31">
         <v>2018</v>
       </c>
@@ -20022,7 +20001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136" s="31">
         <v>2018</v>
       </c>
@@ -20148,7 +20127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A137" s="31">
         <v>2018</v>
       </c>
@@ -20274,7 +20253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A138" s="31">
         <v>2018</v>
       </c>
@@ -20400,7 +20379,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A139" s="31">
         <v>2018</v>
       </c>
@@ -20526,7 +20505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A140" s="31">
         <v>2018</v>
       </c>
@@ -20652,7 +20631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A141" s="31">
         <v>2018</v>
       </c>
@@ -20778,7 +20757,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A142" s="31">
         <v>2018</v>
       </c>
@@ -20904,7 +20883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A143" s="31">
         <v>2018</v>
       </c>
@@ -21030,7 +21009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A144" s="31">
         <v>2018</v>
       </c>
@@ -21156,7 +21135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A145" s="31">
         <v>2018</v>
       </c>
@@ -21282,7 +21261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A146" s="31">
         <v>2018</v>
       </c>
@@ -21408,7 +21387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A147" s="31">
         <v>2018</v>
       </c>
@@ -21534,7 +21513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A148" s="31">
         <v>2018</v>
       </c>
@@ -21660,7 +21639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A149" s="31">
         <v>2018</v>
       </c>
@@ -21786,7 +21765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A150" s="31">
         <v>2018</v>
       </c>
@@ -21912,7 +21891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A151" s="31">
         <v>2018</v>
       </c>
@@ -22038,7 +22017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A152" s="31">
         <v>2018</v>
       </c>
@@ -22164,7 +22143,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A153" s="31">
         <v>2018</v>
       </c>
@@ -22290,7 +22269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A154" s="31">
         <v>2018</v>
       </c>
@@ -22416,7 +22395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A155" s="31">
         <v>2018</v>
       </c>
@@ -22542,7 +22521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A156" s="31">
         <v>2018</v>
       </c>
@@ -22668,7 +22647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A157" s="31">
         <v>2018</v>
       </c>
@@ -22794,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A158" s="31">
         <v>2018</v>
       </c>
@@ -22920,7 +22899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A159" s="31">
         <v>2018</v>
       </c>
@@ -23046,7 +23025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A160" s="31">
         <v>2018</v>
       </c>
@@ -23172,7 +23151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A161" s="31">
         <v>2018</v>
       </c>
@@ -23298,7 +23277,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A162" s="31">
         <v>2018</v>
       </c>
@@ -23424,7 +23403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A163" s="31">
         <v>2018</v>
       </c>
@@ -23550,7 +23529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A164" s="31">
         <v>2018</v>
       </c>
@@ -23676,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A165" s="31">
         <v>2018</v>
       </c>
@@ -23802,7 +23781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A166" s="31">
         <v>2018</v>
       </c>
@@ -23928,7 +23907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A167" s="31">
         <v>2018</v>
       </c>
@@ -24054,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A168" s="31">
         <v>2018</v>
       </c>
@@ -24180,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A169" s="31">
         <v>2018</v>
       </c>
@@ -24306,7 +24285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A170" s="31">
         <v>2018</v>
       </c>
@@ -24432,7 +24411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A171" s="31">
         <v>2018</v>
       </c>
@@ -24558,7 +24537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A172" s="31">
         <v>2018</v>
       </c>
@@ -24684,7 +24663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A173" s="31">
         <v>2018</v>
       </c>
@@ -24810,7 +24789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A174" s="31">
         <v>2018</v>
       </c>
@@ -24936,7 +24915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A175" s="31">
         <v>2018</v>
       </c>
@@ -25062,7 +25041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A176" s="31">
         <v>2018</v>
       </c>
@@ -25188,7 +25167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A177" s="31">
         <v>2018</v>
       </c>
@@ -25314,7 +25293,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A178" s="31">
         <v>2018</v>
       </c>
@@ -25440,7 +25419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A179" s="31">
         <v>2018</v>
       </c>
@@ -25566,7 +25545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A180" s="31">
         <v>2018</v>
       </c>
@@ -25692,7 +25671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A181" s="31">
         <v>2018</v>
       </c>
@@ -25818,7 +25797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A182" s="31">
         <v>2018</v>
       </c>
@@ -25944,7 +25923,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A183" s="31">
         <v>2018</v>
       </c>
@@ -26070,7 +26049,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A184" s="31">
         <v>2018</v>
       </c>
@@ -26196,7 +26175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A185" s="31">
         <v>2018</v>
       </c>
@@ -26322,7 +26301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A186" s="31">
         <v>2018</v>
       </c>
@@ -26448,7 +26427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A187" s="31">
         <v>2018</v>
       </c>
@@ -26574,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A188" s="31">
         <v>2018</v>
       </c>
@@ -26700,7 +26679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A189" s="31">
         <v>2018</v>
       </c>
@@ -26826,7 +26805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A190" s="31">
         <v>2018</v>
       </c>
@@ -26952,7 +26931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A191" s="31">
         <v>2018</v>
       </c>
@@ -27078,7 +27057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A192" s="31">
         <v>2018</v>
       </c>
@@ -27204,7 +27183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A193" s="31">
         <v>2018</v>
       </c>
@@ -27330,7 +27309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A194" s="31">
         <v>2018</v>
       </c>
@@ -27456,7 +27435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A195" s="31">
         <v>2018</v>
       </c>
@@ -27582,7 +27561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A196" s="31">
         <v>2018</v>
       </c>
@@ -27708,7 +27687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A197" s="31">
         <v>2018</v>
       </c>
@@ -27834,7 +27813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A198" s="31">
         <v>2018</v>
       </c>
@@ -27960,7 +27939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A199" s="31">
         <v>2018</v>
       </c>
@@ -28086,7 +28065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A200" s="31">
         <v>2018</v>
       </c>
@@ -28212,7 +28191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A201" s="31">
         <v>2018</v>
       </c>
@@ -28338,7 +28317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A202" s="31">
         <v>2018</v>
       </c>
@@ -28464,7 +28443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A203" s="31">
         <v>2018</v>
       </c>
@@ -28590,7 +28569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A204" s="31">
         <v>2018</v>
       </c>
@@ -28716,7 +28695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A205" s="31">
         <v>2018</v>
       </c>
@@ -28842,7 +28821,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A206" s="31">
         <v>2018</v>
       </c>
@@ -28968,7 +28947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A207" s="31">
         <v>2018</v>
       </c>
@@ -29094,7 +29073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A208" s="31">
         <v>2018</v>
       </c>
@@ -29220,7 +29199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A209" s="31">
         <v>2018</v>
       </c>
@@ -29346,7 +29325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A210" s="31">
         <v>2018</v>
       </c>
@@ -29472,7 +29451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A211" s="31">
         <v>2018</v>
       </c>
@@ -29598,7 +29577,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A212" s="31">
         <v>2018</v>
       </c>
@@ -29724,7 +29703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A213" s="31">
         <v>2018</v>
       </c>
@@ -29850,7 +29829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A214" s="31">
         <v>2018</v>
       </c>
@@ -29976,7 +29955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A215" s="31">
         <v>2018</v>
       </c>
@@ -30102,7 +30081,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A216" s="31">
         <v>2018</v>
       </c>
@@ -30228,7 +30207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A217" s="31">
         <v>2018</v>
       </c>
@@ -30354,7 +30333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A218" s="31">
         <v>2018</v>
       </c>
@@ -30480,7 +30459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A219" s="31">
         <v>2018</v>
       </c>
@@ -30606,7 +30585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A220" s="31">
         <v>2018</v>
       </c>
@@ -30732,7 +30711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A221" s="31">
         <v>2018</v>
       </c>
@@ -30858,7 +30837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A222" s="31">
         <v>2018</v>
       </c>
@@ -30984,7 +30963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A223" s="31">
         <v>2018</v>
       </c>
@@ -31110,7 +31089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A224" s="31">
         <v>2018</v>
       </c>
@@ -31236,7 +31215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A225" s="31">
         <v>2018</v>
       </c>
@@ -31362,7 +31341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A226" s="31">
         <v>2018</v>
       </c>
@@ -31488,7 +31467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A227" s="31">
         <v>2018</v>
       </c>
@@ -31614,7 +31593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A228" s="31">
         <v>2018</v>
       </c>
@@ -31740,7 +31719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A229" s="31">
         <v>2018</v>
       </c>
@@ -31866,7 +31845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A230" s="31">
         <v>2018</v>
       </c>
@@ -31992,7 +31971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A231" s="31">
         <v>2018</v>
       </c>
@@ -32118,7 +32097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A232" s="31">
         <v>2018</v>
       </c>
@@ -32244,7 +32223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A233" s="31">
         <v>2018</v>
       </c>
@@ -32370,7 +32349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A234" s="31">
         <v>2018</v>
       </c>
@@ -32496,7 +32475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A235" s="31">
         <v>2018</v>
       </c>
@@ -32622,7 +32601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A236" s="31">
         <v>2018</v>
       </c>
@@ -32748,7 +32727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A237" s="31">
         <v>2018</v>
       </c>
@@ -32874,7 +32853,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A238" s="31">
         <v>2018</v>
       </c>
@@ -33000,7 +32979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A239" s="31">
         <v>2018</v>
       </c>
@@ -33126,7 +33105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A240" s="31">
         <v>2018</v>
       </c>
@@ -33252,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A241" s="31">
         <v>2018</v>
       </c>
@@ -33378,7 +33357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A242" s="31">
         <v>2018</v>
       </c>
@@ -33504,7 +33483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A243" s="31">
         <v>2018</v>
       </c>
@@ -33630,7 +33609,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A244" s="31">
         <v>2018</v>
       </c>
@@ -33756,7 +33735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A245" s="31">
         <v>2018</v>
       </c>
@@ -33882,7 +33861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A246" s="31">
         <v>2018</v>
       </c>
@@ -34008,7 +33987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A247" s="31">
         <v>2018</v>
       </c>
@@ -34134,7 +34113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A248" s="31">
         <v>2018</v>
       </c>
@@ -34260,7 +34239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A249" s="31">
         <v>2018</v>
       </c>
@@ -34386,7 +34365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A250" s="31">
         <v>2018</v>
       </c>
@@ -34512,7 +34491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A251" s="31">
         <v>2018</v>
       </c>
@@ -34638,7 +34617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A252" s="31">
         <v>2018</v>
       </c>
@@ -34764,7 +34743,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A253" s="31">
         <v>2018</v>
       </c>
@@ -34890,7 +34869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A254" s="31">
         <v>2018</v>
       </c>
@@ -35016,7 +34995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A255" s="31">
         <v>2018</v>
       </c>
@@ -35142,7 +35121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A256" s="31">
         <v>2018</v>
       </c>
@@ -35268,7 +35247,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A257" s="31">
         <v>2018</v>
       </c>
@@ -35394,7 +35373,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A258" s="31">
         <v>2018</v>
       </c>
@@ -35520,7 +35499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A259" s="31">
         <v>2018</v>
       </c>
@@ -35646,7 +35625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A260" s="31">
         <v>2018</v>
       </c>
@@ -35772,7 +35751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A261" s="31">
         <v>2018</v>
       </c>
@@ -35898,7 +35877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A262" s="31">
         <v>2018</v>
       </c>
@@ -36024,7 +36003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A263" s="31">
         <v>2018</v>
       </c>
@@ -36150,7 +36129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A264" s="31">
         <v>2018</v>
       </c>
@@ -36276,7 +36255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A265" s="31">
         <v>2018</v>
       </c>
@@ -36402,7 +36381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A266" s="31">
         <v>2018</v>
       </c>
@@ -36528,7 +36507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A267" s="31">
         <v>2018</v>
       </c>
@@ -36654,7 +36633,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="268" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A268" s="31">
         <v>2018</v>
       </c>
@@ -36780,7 +36759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A269" s="31">
         <v>2018</v>
       </c>
@@ -36906,7 +36885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A270" s="31">
         <v>2018</v>
       </c>
@@ -37032,7 +37011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A271" s="31">
         <v>2018</v>
       </c>
@@ -37158,7 +37137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A272" s="31">
         <v>2018</v>
       </c>
@@ -37284,7 +37263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A273" s="31">
         <v>2018</v>
       </c>
@@ -37410,7 +37389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A274" s="31">
         <v>2018</v>
       </c>
@@ -37536,7 +37515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A275" s="31">
         <v>2018</v>
       </c>
@@ -37662,7 +37641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A276" s="31">
         <v>2018</v>
       </c>
@@ -37788,7 +37767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A277" s="31">
         <v>2018</v>
       </c>
@@ -37914,7 +37893,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A278" s="31">
         <v>2018</v>
       </c>
@@ -38040,7 +38019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A279" s="31">
         <v>2018</v>
       </c>
@@ -38166,7 +38145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A280" s="31">
         <v>2018</v>
       </c>
@@ -38292,7 +38271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A281" s="31">
         <v>2018</v>
       </c>
@@ -38418,7 +38397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A282" s="31">
         <v>2018</v>
       </c>
@@ -38544,7 +38523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="283" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A283" s="31">
         <v>2018</v>
       </c>
@@ -38670,7 +38649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A284" s="31">
         <v>2018</v>
       </c>
@@ -38796,7 +38775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A285" s="31">
         <v>2018</v>
       </c>
@@ -38922,7 +38901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A286" s="31">
         <v>2018</v>
       </c>
@@ -39048,7 +39027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A287" s="31">
         <v>2018</v>
       </c>
@@ -39174,7 +39153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A288" s="31">
         <v>2018</v>
       </c>
@@ -39300,7 +39279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A289" s="31">
         <v>2018</v>
       </c>
@@ -39426,7 +39405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A290" s="31">
         <v>2018</v>
       </c>
@@ -39552,7 +39531,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A291" s="31">
         <v>2018</v>
       </c>
@@ -39678,7 +39657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A292" s="31">
         <v>2018</v>
       </c>
@@ -39804,7 +39783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A293" s="31">
         <v>2018</v>
       </c>
@@ -39930,7 +39909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A294" s="31">
         <v>2018</v>
       </c>
@@ -40056,7 +40035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A295" s="31">
         <v>2018</v>
       </c>
@@ -40182,7 +40161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A296" s="31">
         <v>2018</v>
       </c>
@@ -40308,7 +40287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A297" s="31">
         <v>2018</v>
       </c>
@@ -40434,7 +40413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A298" s="31">
         <v>2018</v>
       </c>
@@ -40560,7 +40539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A299" s="31">
         <v>2018</v>
       </c>
@@ -40686,7 +40665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="300" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A300" s="31">
         <v>2018</v>
       </c>
@@ -40812,7 +40791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A301" s="31">
         <v>2018</v>
       </c>
@@ -40938,7 +40917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A302" s="31">
         <v>2018</v>
       </c>
@@ -41064,7 +41043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A303" s="31">
         <v>2018</v>
       </c>
@@ -41190,7 +41169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A304" s="31">
         <v>2018</v>
       </c>
@@ -41316,7 +41295,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A305" s="31">
         <v>2018</v>
       </c>
@@ -41442,7 +41421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="306" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A306" s="31">
         <v>2018</v>
       </c>
@@ -41568,7 +41547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A307" s="31">
         <v>2018</v>
       </c>
@@ -41694,7 +41673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A308" s="31">
         <v>2018</v>
       </c>
@@ -41820,7 +41799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A309" s="31">
         <v>2018</v>
       </c>
@@ -41946,7 +41925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A310" s="31">
         <v>2018</v>
       </c>
@@ -42072,7 +42051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A311" s="31">
         <v>2018</v>
       </c>
@@ -42198,7 +42177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A312" s="31">
         <v>2018</v>
       </c>
@@ -42324,7 +42303,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A313" s="31">
         <v>2018</v>
       </c>
@@ -42450,7 +42429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A314" s="31">
         <v>2018</v>
       </c>
@@ -42576,7 +42555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A315" s="31">
         <v>2018</v>
       </c>
@@ -42702,7 +42681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="316" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A316" s="31">
         <v>2018</v>
       </c>
@@ -42828,7 +42807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A317" s="31">
         <v>2018</v>
       </c>
@@ -42954,7 +42933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A318" s="31">
         <v>2018</v>
       </c>
@@ -43080,7 +43059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A319" s="31">
         <v>2018</v>
       </c>
@@ -43206,7 +43185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A320" s="31">
         <v>2018</v>
       </c>
@@ -43332,7 +43311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A321" s="31">
         <v>2018</v>
       </c>
@@ -43458,7 +43437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A322" s="31">
         <v>2018</v>
       </c>
@@ -43584,7 +43563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A323" s="31">
         <v>2018</v>
       </c>
@@ -43710,7 +43689,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="324" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A324" s="31">
         <v>2018</v>
       </c>
@@ -43836,7 +43815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A325" s="31">
         <v>2018</v>
       </c>
@@ -43962,7 +43941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A326" s="31">
         <v>2018</v>
       </c>
@@ -44088,7 +44067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A327" s="31">
         <v>2018</v>
       </c>
@@ -44214,7 +44193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A328" s="31">
         <v>2018</v>
       </c>
@@ -44340,7 +44319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A329" s="31">
         <v>2018</v>
       </c>
@@ -44466,7 +44445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A330" s="31">
         <v>2018</v>
       </c>
@@ -44592,7 +44571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A331" s="31">
         <v>2018</v>
       </c>
@@ -44718,7 +44697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A332" s="31">
         <v>2018</v>
       </c>
@@ -44844,7 +44823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A333" s="31">
         <v>2018</v>
       </c>
@@ -44970,7 +44949,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A334" s="31">
         <v>2018</v>
       </c>
@@ -45096,7 +45075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A335" s="31">
         <v>2018</v>
       </c>
@@ -45222,7 +45201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A336" s="31">
         <v>2018</v>
       </c>
@@ -45348,7 +45327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A337" s="31">
         <v>2018</v>
       </c>
@@ -45474,7 +45453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A338" s="31">
         <v>2018</v>
       </c>
@@ -45600,7 +45579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A339" s="31">
         <v>2018</v>
       </c>
@@ -45726,7 +45705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A340" s="31">
         <v>2018</v>
       </c>
@@ -45852,7 +45831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A341" s="31">
         <v>2018</v>
       </c>
@@ -45978,7 +45957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A342" s="31">
         <v>2018</v>
       </c>
@@ -46104,7 +46083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="343" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A343" s="31">
         <v>2018</v>
       </c>
@@ -46230,7 +46209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A344" s="31">
         <v>2018</v>
       </c>
@@ -46356,7 +46335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A345" s="31">
         <v>2018</v>
       </c>
@@ -46482,7 +46461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A346" s="31">
         <v>2018</v>
       </c>
@@ -46608,7 +46587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A347" s="31">
         <v>2018</v>
       </c>
@@ -46734,7 +46713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A348" s="31">
         <v>2018</v>
       </c>
@@ -46860,7 +46839,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A349" s="31">
         <v>2018</v>
       </c>
@@ -46986,7 +46965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A350" s="31">
         <v>2018</v>
       </c>
@@ -47112,7 +47091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A351" s="31">
         <v>2018</v>
       </c>
@@ -47238,7 +47217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="352" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A352" s="31">
         <v>2018</v>
       </c>
@@ -47364,7 +47343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="353" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A353" s="31">
         <v>2018</v>
       </c>
@@ -47490,7 +47469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A354" s="31">
         <v>2018</v>
       </c>
@@ -47616,7 +47595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A355" s="31">
         <v>2018</v>
       </c>
@@ -47742,7 +47721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A356" s="31">
         <v>2018</v>
       </c>
@@ -47868,7 +47847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A357" s="31">
         <v>2018</v>
       </c>
@@ -47994,7 +47973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A358" s="31">
         <v>2018</v>
       </c>
@@ -48120,7 +48099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A359" s="31">
         <v>2018</v>
       </c>
@@ -48246,7 +48225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="360" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A360" s="31">
         <v>2018</v>
       </c>
@@ -48372,7 +48351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="361" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A361" s="31">
         <v>2018</v>
       </c>
@@ -48498,7 +48477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A362" s="31">
         <v>2018</v>
       </c>
@@ -48624,7 +48603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="363" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A363" s="31">
         <v>2018</v>
       </c>
@@ -48750,7 +48729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A364" s="31">
         <v>2018</v>
       </c>
@@ -48876,7 +48855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A365" s="31">
         <v>2018</v>
       </c>
@@ -49002,7 +48981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A366" s="31">
         <v>2018</v>
       </c>
@@ -49128,7 +49107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A367" s="31">
         <v>2018</v>
       </c>
@@ -49254,7 +49233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="368" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A368" s="31">
         <v>2018</v>
       </c>
@@ -49380,7 +49359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A369" s="31">
         <v>2018</v>
       </c>
@@ -49506,7 +49485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A370" s="31">
         <v>2018</v>
       </c>
@@ -49632,7 +49611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A371" s="31">
         <v>2018</v>
       </c>
@@ -49758,7 +49737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A372" s="31">
         <v>2018</v>
       </c>
@@ -49884,7 +49863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A373" s="31">
         <v>2018</v>
       </c>
@@ -50010,7 +49989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A374" s="31">
         <v>2018</v>
       </c>
@@ -50136,7 +50115,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A375" s="31">
         <v>2018</v>
       </c>
@@ -50262,7 +50241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="376" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A376" s="31">
         <v>2018</v>
       </c>
@@ -50388,7 +50367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A377" s="31">
         <v>2018</v>
       </c>
@@ -50514,7 +50493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A378" s="31">
         <v>2018</v>
       </c>
@@ -50640,7 +50619,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A379" s="31">
         <v>2018</v>
       </c>
@@ -50766,7 +50745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A380" s="31">
         <v>2018</v>
       </c>
@@ -50892,7 +50871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A381" s="31">
         <v>2018</v>
       </c>
@@ -51018,7 +50997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A382" s="31">
         <v>2018</v>
       </c>
@@ -51144,7 +51123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A383" s="31">
         <v>2018</v>
       </c>
@@ -51270,7 +51249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A384" s="31">
         <v>2018</v>
       </c>
@@ -51396,7 +51375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A385" s="31">
         <v>2018</v>
       </c>
@@ -51522,7 +51501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A386" s="31">
         <v>2018</v>
       </c>
@@ -51648,7 +51627,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="387" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A387" s="31">
         <v>2018</v>
       </c>
@@ -51774,7 +51753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A388" s="31">
         <v>2018</v>
       </c>
@@ -51900,7 +51879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="389" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A389" s="31">
         <v>2018</v>
       </c>
@@ -52026,7 +52005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="390" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A390" s="31">
         <v>2018</v>
       </c>
@@ -52152,7 +52131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A391" s="31">
         <v>2018</v>
       </c>
@@ -52278,7 +52257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A392" s="31">
         <v>2018</v>
       </c>
@@ -52404,7 +52383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="393" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A393" s="31">
         <v>2018</v>
       </c>
@@ -52530,7 +52509,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="394" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A394" s="31">
         <v>2018</v>
       </c>
@@ -52656,7 +52635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="395" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A395" s="31">
         <v>2018</v>
       </c>
@@ -52782,7 +52761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A396" s="31">
         <v>2018</v>
       </c>
@@ -52908,7 +52887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="397" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A397" s="31">
         <v>2018</v>
       </c>
@@ -53034,7 +53013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="398" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A398" s="31">
         <v>2018</v>
       </c>
@@ -53160,7 +53139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="399" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A399" s="31">
         <v>2018</v>
       </c>
@@ -53286,7 +53265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="400" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A400" s="31">
         <v>2018</v>
       </c>
@@ -53412,7 +53391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="401" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A401" s="31">
         <v>2018</v>
       </c>
@@ -53538,7 +53517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="402" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A402" s="31">
         <v>2018</v>
       </c>
@@ -53664,7 +53643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A403" s="31">
         <v>2018</v>
       </c>
@@ -53790,7 +53769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A404" s="31">
         <v>2018</v>
       </c>
@@ -53916,7 +53895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A405" s="31">
         <v>2018</v>
       </c>
@@ -54042,7 +54021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="406" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A406" s="31">
         <v>2018</v>
       </c>
@@ -54168,7 +54147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="407" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A407" s="31">
         <v>2018</v>
       </c>
@@ -54294,7 +54273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="408" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A408" s="31">
         <v>2018</v>
       </c>
@@ -54420,7 +54399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="409" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A409" s="31">
         <v>2018</v>
       </c>
@@ -54546,7 +54525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A410" s="31">
         <v>2018</v>
       </c>
@@ -54672,7 +54651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="411" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A411" s="31">
         <v>2018</v>
       </c>
@@ -54798,7 +54777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="412" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A412" s="31">
         <v>2018</v>
       </c>
@@ -54924,7 +54903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="413" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A413" s="31">
         <v>2018</v>
       </c>
@@ -55050,7 +55029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A414" s="31">
         <v>2018</v>
       </c>
@@ -55176,7 +55155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="415" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A415" s="31">
         <v>2018</v>
       </c>
@@ -55302,7 +55281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A416" s="31">
         <v>2018</v>
       </c>
@@ -55428,7 +55407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A417" s="31">
         <v>2018</v>
       </c>
@@ -55554,7 +55533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="418" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A418" s="31">
         <v>2018</v>
       </c>
@@ -55680,7 +55659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A419" s="31">
         <v>2018</v>
       </c>
@@ -55806,7 +55785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A420" s="31">
         <v>2018</v>
       </c>
@@ -55932,7 +55911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="421" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A421" s="31">
         <v>2018</v>
       </c>
@@ -56058,7 +56037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="422" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A422" s="31">
         <v>2018</v>
       </c>
@@ -56184,7 +56163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="423" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A423" s="31">
         <v>2018</v>
       </c>
@@ -56310,7 +56289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A424" s="31">
         <v>2018</v>
       </c>
@@ -56436,7 +56415,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A425" s="31">
         <v>2018</v>
       </c>
@@ -56562,7 +56541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="426" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A426" s="31">
         <v>2018</v>
       </c>
@@ -56688,7 +56667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A427" s="31">
         <v>2018</v>
       </c>
@@ -56814,7 +56793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="428" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A428" s="31">
         <v>2018</v>
       </c>
@@ -56940,7 +56919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A429" s="31">
         <v>2018</v>
       </c>
@@ -57066,7 +57045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="430" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A430" s="31">
         <v>2018</v>
       </c>
@@ -57192,7 +57171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="431" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A431" s="31">
         <v>2018</v>
       </c>
@@ -57318,7 +57297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="432" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A432" s="31">
         <v>2018</v>
       </c>
@@ -57470,41 +57449,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>550</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>551</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>552</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="9"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>549</v>
       </c>
@@ -57512,7 +57491,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>437</v>
       </c>
@@ -57525,7 +57504,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>438</v>
       </c>
@@ -57538,7 +57517,7 @@
         <v>0.22725360090629559</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>439</v>
       </c>
@@ -57551,22 +57530,22 @@
         <v>0.49636510762259262</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -57579,7 +57558,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -57605,52 +57584,50 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>555</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="11">
-        <f>Calculations!B17*About!$A$34*About!$B$37</f>
-        <v>17303.175621569459</v>
+        <f>Calculations!B17*About!$A$34</f>
+        <v>23383.101272803659</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>554</v>
       </c>
       <c r="B3" s="11">
-        <f>Calculations!B17*About!$A$34*About!$B$37</f>
-        <v>17303.175621569459</v>
+        <f>Calculations!B17*About!$A$34</f>
+        <v>23383.101272803659</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>462</v>
       </c>
       <c r="B4" s="11">
-        <f>Calculations!B16*About!$A$34*About!$B$37</f>
-        <v>28079.590246373176</v>
+        <f>Calculations!B16*About!$A$34</f>
+        <v>37946.092485549132</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>463</v>
       </c>
@@ -57673,20 +57650,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>557</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -57694,7 +57671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>554</v>
       </c>
@@ -57703,7 +57680,7 @@
         <v>0.72361870852888821</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>462</v>
       </c>
@@ -57712,7 +57689,7 @@
         <v>0.27639423854992745</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>463</v>
       </c>
